--- a/2_design/asim/artifacts/testing/analyze-user.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9057F5-3A2E-4C7C-9782-486FD466C66B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E547D-E4D1-428E-9820-5306EFF87688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
-    <sheet name="Precision" sheetId="7" r:id="rId2"/>
-    <sheet name="Recall" sheetId="8" r:id="rId3"/>
-    <sheet name="F1" sheetId="9" r:id="rId4"/>
-    <sheet name="MSE" sheetId="10" r:id="rId5"/>
-    <sheet name="R" sheetId="11" r:id="rId6"/>
-    <sheet name="Speed" sheetId="12" r:id="rId7"/>
+    <sheet name="MSE" sheetId="10" r:id="rId2"/>
+    <sheet name="R" sheetId="11" r:id="rId3"/>
+    <sheet name="Speed" sheetId="12" r:id="rId4"/>
+    <sheet name="Precision" sheetId="7" r:id="rId5"/>
+    <sheet name="Recall" sheetId="8" r:id="rId6"/>
+    <sheet name="F1" sheetId="9" r:id="rId7"/>
     <sheet name="Radar" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -4938,6 +4938,3606 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.9476</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.0162</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.1134999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <f>AVERAGE(B2:J2)</f>
+        <v>0.9632666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0255000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.2393000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <v>0.96977777777777796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0019</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.0939000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.3154999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99486666666666657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0676000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0898000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1031</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.1233</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.1458999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.1738999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.2349000000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4165000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1594444444444447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.9294</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.0208999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.1956</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96492222222222224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.0438000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.1355</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99048888888888897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.0137</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.1146</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.3721000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99187777777777775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.98509999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.0344</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.1267</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.1677999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98607777777777761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0224</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.1234999999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.3499000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99397777777777785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.9415</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.0262</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.2313000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97060000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.94679999999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.1794</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97001111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.90620000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.0206</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.1959</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96467777777777797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.8871</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0799000000000001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.4584999999999999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.9472</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1013333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.0444</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.2484</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96954444444444454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0125999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0222</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.026</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0331999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.0405</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0518000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.0709</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.1165</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.2249000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.066511111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.0158</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.1812</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97073333333333345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0812999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0935999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.103</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.1137999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.1505000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.1740999999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.2295</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.4196</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1664222222222225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1.0444</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.2525999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97413333333333318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0047999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.0299</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0966</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.1603000000000001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1.2773000000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.5198</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1229222222222222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.9073</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.2299</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96986666666666688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.8962</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.0237000000000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.238</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96844444444444433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.0044</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.0949</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.3151999999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98810000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.9657</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1.0150999999999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.1833</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9687444444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.8952</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.9274</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.9627</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1.0206</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.1993</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96366666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1.0643</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.2514000000000001</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98631111111111103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.8911</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.9819</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1.0556000000000001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.2523</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9719444444444445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.9304</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.0064</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.1131</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96181111111111106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.0290999999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.2821</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97797777777777783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.9022</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.97350000000000003</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.0475000000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.2687999999999999</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97538888888888897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.0832999999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.3227</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98683333333333323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.0177</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.1275999999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.3643000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0020444444444445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.9788</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.0581</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.282</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97843333333333327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.38290000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.37359999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.3261</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3004</v>
+      </c>
+      <c r="K2" s="1">
+        <f>AVERAGE(B2:J2)</f>
+        <v>0.36627777777777776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.3881</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.2051</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <v>0.35528888888888882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.3851</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32302222222222227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1147</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1087</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.11E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8377777777777782E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.3871</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.3856</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.3145</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.2228</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35454444444444438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.4355</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.36990000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.246</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.19309999999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.45190000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.3821</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.2828</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29135555555555559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.3352</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.25740000000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.2031</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29452222222222224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.41089999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.34239999999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27477777777777773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.3841</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.37190000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35586666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.38129999999999997</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35976666666666662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.3891</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.38469999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.38219999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.2248</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35983333333333328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.2621</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1676</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-4.2500000000000003E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17726666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.3841</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35811111111111105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.2636</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.253</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25064444444444445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.37819999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.38329999999999997</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.3745</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.3589</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35921111111111115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1192</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.1004</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.09E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>7.987777777777777E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35728888888888893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.1547</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1157</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-3.4599999999999999E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12451111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.3881</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35210000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35571111111111109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.1905</v>
+      </c>
+      <c r="J23" s="1">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31033333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.38390000000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36164444444444444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.43109999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.3871</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.31569999999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.2243</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36143333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.3901</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35178888888888893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.44130000000000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.39639999999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.2913</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35709999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.3619</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.34589999999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36856666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.3846</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35308888888888895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.3876</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.3674</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3480111111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.3584</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.2782</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.1832</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34197777777777771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.3846</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32966666666666661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34263333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.1714</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <f>AVERAGE(B2:J2)</f>
+        <v>0.16582222222222223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.38990000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.1658</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2041</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1041</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1706</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <v>0.19327777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2495</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.2077</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.1542</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.1226</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17590000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.372</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1799</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.89E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19038888888888886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1321</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2014</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2029</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13971111111111112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.2878</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.3745</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1633</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.69E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.53E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.19514444444444448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.4304</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.2137</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.1993</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21134444444444445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.2079</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2131777777777778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.2165</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15075555555555556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2122</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1933</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1711</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.1711</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.2165</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2.92E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2029222222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.1968</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.1547</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.89E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16189999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.63139999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.1825</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1799</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24519999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.1047</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.153</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1285</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.99E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11996666666666668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32878888888888885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.5583999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.4575</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.9407999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5232000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8660888888888887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1704</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1608</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.29139999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1191</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18812222222222222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.47889999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.32179999999999997</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32534444444444444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.1042</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.1608</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.1956</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.18959999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1512</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12141111111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.1234</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.2404</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.1434</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.1113</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14334444444444441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.2225</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15475555555555559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2492</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.1527</v>
+      </c>
+      <c r="I22" s="1">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17833333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.2001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.1701</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.1789</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.95E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2669555555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.2114</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.1923</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.38550000000000001</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34106666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.1641</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22295555555555557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.64849999999999997</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.1996</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.3085</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.37719999999999998</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31423333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.2676</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.2155</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31161111111111112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.68769999999999998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.22070000000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32448888888888888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.79320000000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.1774</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.21410000000000001</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27344444444444443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6.54E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22125555555555557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.1525</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.1321</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20654444444444447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.1615</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.1701</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15715555555555552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -6137,7 +9737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -7337,7 +10937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
@@ -7906,3606 +11506,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.9304</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.9476</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.96809999999999996</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.0162</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.1134999999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.9632666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.91039999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.91839999999999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.96379999999999999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.0255000000000001</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.2393000000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.96977777777777796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.89470000000000005</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.92449999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.96319999999999995</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.0019</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.0939000000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.3154999999999999</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99486666666666657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.0676000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.0898000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.1031</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.1233</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.1458999999999999</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.1738999999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.2349000000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.4165000000000001</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1594444444444447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.91930000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.9294</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.96430000000000005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.0208999999999999</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.1956</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96492222222222224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9304</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.0438000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.1355</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99048888888888897</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.87860000000000005</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.92889999999999995</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.0137</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.1146</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.3721000000000001</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99187777777777775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.89470000000000005</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.92610000000000003</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.95309999999999995</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.98509999999999998</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.0344</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.1267</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.1677999999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98607777777777761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.86409999999999998</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.87980000000000003</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.89219999999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.90969999999999995</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.0224</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.1234999999999999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.3499000000000001</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99397777777777785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.90780000000000005</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.92079999999999995</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.9415</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1.0262</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.2313000000000001</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97060000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.94679999999999997</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.96709999999999996</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.1794</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97001111111111116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.90620000000000001</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.96379999999999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1.0206</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.1959</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96467777777777797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.8871</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.88660000000000005</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.89329999999999998</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.95720000000000005</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1.0799000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1.4584999999999999</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.9472</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1013333333333335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.88780000000000003</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.89770000000000005</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.90249999999999997</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.92390000000000005</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.93830000000000002</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.97089999999999999</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1.0444</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.2484</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96954444444444454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.0125999999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0222</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.026</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.0331999999999999</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.0405</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.0518000000000001</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.0709</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1.1165</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.2249000000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.066511111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.91159999999999997</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.92369999999999997</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.9304</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.94730000000000003</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.9677</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.0158</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.1812</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97073333333333345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.0812999999999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0935999999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.103</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.1137999999999999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.1324000000000001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.1505000000000001</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.1740999999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.2295</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.4196</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1664222222222225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.90310000000000001</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.90849999999999997</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.91739999999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.0444</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.2525999999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97413333333333318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.96450000000000002</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.0047999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.0299</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.0966</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.1603000000000001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.2773000000000001</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.5198</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1229222222222222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.9073</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.93030000000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.2299</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96986666666666688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.8962</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.96260000000000001</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.0237000000000001</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.238</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96844444444444433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.88119999999999998</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.89980000000000004</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.91210000000000002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.95960000000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.0044</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1.0949</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.3151999999999999</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98810000000000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.90849999999999997</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.91639999999999999</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.92759999999999998</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.94489999999999996</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.9657</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1.0150999999999999</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.1833</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9687444444444443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.8952</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.90869999999999995</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.9274</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.9627</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1.0206</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.1993</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96366666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.93049999999999999</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.96340000000000003</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.99670000000000003</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.0643</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1.2514000000000001</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98631111111111103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.88109999999999999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.8911</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.89849999999999997</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.91269999999999996</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.92879999999999996</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.9819</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1.0556000000000001</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1.2523</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9719444444444445</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.91020000000000001</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.91869999999999996</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.9304</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.93959999999999999</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.96730000000000005</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.0064</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1.1131</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96181111111111106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.90229999999999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.91069999999999995</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.92249999999999999</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.96630000000000005</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1.0290999999999999</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1.2821</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97797777777777783</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.89219999999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.9022</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.90720000000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.91659999999999997</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.97350000000000003</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1.0475000000000001</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1.2687999999999999</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97538888888888897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.88770000000000004</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.90449999999999997</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.91579999999999995</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.94889999999999997</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1.0832999999999999</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1.3227</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98683333333333323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.89790000000000003</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.90529999999999999</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.91949999999999998</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1.0177</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1.1275999999999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1.3643000000000001</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0020444444444445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.89029999999999998</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.90059999999999996</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.90580000000000005</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.91649999999999998</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.9788</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1.0581</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1.282</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97843333333333327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.41849999999999998</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.378</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.38290000000000002</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.38059999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.37840000000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.37359999999999999</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.3261</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.3004</v>
-      </c>
-      <c r="K2" s="1">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.36627777777777776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.3881</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.39150000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.38829999999999998</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.38550000000000001</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.37709999999999999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.2051</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.35528888888888882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.43390000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.38650000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.3851</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.37409999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.32650000000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.28789999999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.22040000000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.14030000000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32302222222222227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.1147</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.1087</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9.11E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.78E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>7.8377777777777782E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.3871</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.3856</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.38850000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.38429999999999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.38169999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.37330000000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.35310000000000002</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.3145</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.2228</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35454444444444438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.4355</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.36990000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.35570000000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.29049999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.246</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.19309999999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.45190000000000002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.39389999999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.3821</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.35970000000000002</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.32650000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.2828</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.22359999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.14480000000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29135555555555559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.43780000000000002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.37490000000000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.3352</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.30130000000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.25740000000000002</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.2031</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.13139999999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.24759999999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.29452222222222224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.41089999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.38229999999999997</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.36680000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.34239999999999998</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.30680000000000002</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.26479999999999998</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.13420000000000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27477777777777773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.42730000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.3841</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.38279999999999997</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.38030000000000003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.37190000000000001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.35160000000000002</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.312</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.20580000000000001</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35586666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.41920000000000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.37890000000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.38129999999999997</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.35959999999999998</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.23350000000000001</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35976666666666662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.42880000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.3891</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.38469999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.38219999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.37409999999999999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.35389999999999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.315</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.2248</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35983333333333328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.31190000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.29849999999999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.29149999999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.2621</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.21429999999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.1676</v>
-      </c>
-      <c r="H14" s="1">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-4.2500000000000003E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17726666666666668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.43430000000000002</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.39279999999999998</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.39510000000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.3841</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.37109999999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.34489999999999998</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.29809999999999998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35811111111111105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.2636</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.26069999999999999</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.26379999999999998</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.253</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.25530000000000003</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.22239999999999999</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.18970000000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25064444444444445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.41849999999999998</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.37819999999999998</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.38329999999999997</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.37890000000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.3745</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.3589</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.32679999999999998</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.23280000000000001</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35921111111111115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.1192</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.1004</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.09E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>7.987777777777777E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.39389999999999997</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.39129999999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.37680000000000002</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.30890000000000001</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35728888888888893</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.27960000000000002</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.25609999999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.20069999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.1547</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.1157</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-3.4599999999999999E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12451111111111109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.3881</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.38119999999999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.373</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.35270000000000001</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.31309999999999999</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35210000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.38719999999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.38869999999999999</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.39250000000000002</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.38890000000000002</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.38619999999999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.35780000000000001</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.31690000000000002</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.20530000000000001</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35571111111111109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.40620000000000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.39410000000000001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.378</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.35249999999999998</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.1905</v>
-      </c>
-      <c r="J23" s="1">
-        <v>9.3200000000000005E-2</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31033333333333335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.38150000000000001</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.38390000000000002</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.37709999999999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.36130000000000001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.32790000000000002</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36164444444444444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.43109999999999998</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.3871</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.38429999999999997</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.37609999999999999</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.35539999999999999</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.31569999999999998</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.2243</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36143333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.38690000000000002</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.3901</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.37930000000000003</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.37119999999999997</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.33660000000000001</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35178888888888893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.44130000000000003</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.39639999999999997</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.38979999999999998</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.33810000000000001</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.2913</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35709999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.37919999999999998</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.37769999999999998</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.37390000000000001</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.3619</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.34589999999999999</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.30080000000000001</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.36856666666666665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.42570000000000002</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.3846</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.38919999999999999</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.38350000000000001</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.37630000000000002</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.31380000000000002</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.16170000000000001</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35308888888888895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.3876</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.38969999999999999</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.38550000000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.37990000000000002</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.3674</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.34139999999999998</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.29709999999999998</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3480111111111111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.39119999999999999</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.38790000000000002</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.38540000000000002</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.37569999999999998</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.3584</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.2782</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.1832</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34197777777777771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.39410000000000001</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.3846</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.38350000000000001</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.37540000000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.33839999999999998</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.25459999999999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.17319999999999999</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32966666666666661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.38919999999999999</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.38619999999999999</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.38619999999999999</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.38059999999999999</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.37459999999999999</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.35949999999999999</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.33179999999999998</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.28620000000000001</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.18940000000000001</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34263333333333335</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.16520000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.34689999999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.14860000000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.1714</v>
-      </c>
-      <c r="H2" s="1">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="K2" s="1">
-        <f>AVERAGE(B2:J2)</f>
-        <v>0.16582222222222223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.13539999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.38990000000000002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.1875</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.1658</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.2041</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.1041</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.1706</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
-        <v>0.19327777777777777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.2495</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.33310000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.2077</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.17510000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.1542</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.20610000000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.1226</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.78E-2</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17590000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.25869999999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.372</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.17680000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.15679999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.1799</v>
-      </c>
-      <c r="H5" s="1">
-        <v>9.4E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.89E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19038888888888886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.1321</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.18679999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.2014</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.2029</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.14430000000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.10489999999999999</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13971111111111112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.2878</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.3745</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.17879999999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.15870000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.1633</v>
-      </c>
-      <c r="H7" s="1">
-        <v>9.69E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.53E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.19514444444444448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.4304</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.29559999999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.2137</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.19489999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.17169999999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.12959999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.1993</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21134444444444445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.43020000000000003</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.31709999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.19489999999999999</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.17150000000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.2079</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.12709999999999999</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.81E-2</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2131777777777778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.2165</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.15809999999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.113</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7.5700000000000003E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15075555555555556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.47820000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.22969999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.2122</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.1933</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.1711</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.1711</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.2165</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2.92E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2029222222222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.25230000000000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.1968</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.17810000000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.15640000000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.1547</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.19969999999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.89E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16189999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.63139999999999996</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.1825</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.1799</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.23569999999999999</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="J13" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24519999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.1047</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.18629999999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.153</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.1285</v>
-      </c>
-      <c r="H14" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4.99E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11996666666666668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.87539999999999996</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.33679999999999999</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.33169999999999999</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.24360000000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.28349999999999997</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.24260000000000001</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.40579999999999999</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32878888888888885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3.5583999999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.4575</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.9407999999999999</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.5232000000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.2814000000000001</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.8280000000000001</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.33229999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8660888888888887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.28720000000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.1704</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.26390000000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.1608</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.29139999999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.17979999999999999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.1191</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.18812222222222222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.34889999999999999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.47889999999999999</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.32179999999999997</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.21709999999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.11219999999999999</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32534444444444444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.1042</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.1608</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.1956</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.18959999999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.1512</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.12609999999999999</v>
-      </c>
-      <c r="H19" s="1">
-        <v>9.4399999999999998E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12141111111111111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.1234</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.18909999999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.2404</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.22670000000000001</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.16650000000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.1434</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.1113</v>
-      </c>
-      <c r="I20" s="1">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14334444444444441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.21260000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.2225</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.15859999999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.12479999999999999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15475555555555559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.18529999999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2492</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.24759999999999999</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.19489999999999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.1527</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.17833333333333334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.19339999999999999</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.25330000000000003</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.29049999999999998</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.25090000000000001</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.2001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="I23" s="1">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.62209999999999999</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.1701</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.373</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.1789</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.16270000000000001</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.25580000000000003</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.95E-2</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2669555555555555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.21909999999999999</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.45469999999999999</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.2114</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.1923</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.34949999999999998</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.38550000000000001</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34106666666666663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.26429999999999998</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.35780000000000001</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.17760000000000001</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.1641</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.29409999999999997</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.31259999999999999</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22295555555555557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.64849999999999997</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.1996</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.3085</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.21010000000000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.18410000000000001</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.37719999999999998</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31423333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.22239999999999999</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.36449999999999999</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.2676</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.2155</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.42609999999999998</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.28910000000000002</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.50849999999999995</v>
-      </c>
-      <c r="J28" s="1">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.31161111111111112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.68769999999999998</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.22969999999999999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.35610000000000003</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.22070000000000001</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.42849999999999999</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.21310000000000001</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="J29" s="1">
-        <v>6.4600000000000005E-2</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.32448888888888888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.39419999999999999</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.79320000000000002</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.26950000000000002</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.1774</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.14779999999999999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.21410000000000001</v>
-      </c>
-      <c r="I30" s="1">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27344444444444443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.27260000000000001</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.32050000000000001</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.16159999999999999</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.15079999999999999</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.12659999999999999</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>6.54E-2</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22125555555555557</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.27379999999999999</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.27289999999999998</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.65249999999999997</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.16089999999999999</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.1525</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.12620000000000001</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.1321</v>
-      </c>
-      <c r="I32" s="1">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.20654444444444447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.13669999999999999</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.21870000000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.1615</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.1701</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="J33" s="1">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15715555555555552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2_design/asim/artifacts/testing/analyze-user.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194E547D-E4D1-428E-9820-5306EFF87688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F6ADCF-B223-4CAB-BFC0-59B5EC26226D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>CjacMD</t>
-  </si>
-  <si>
     <t>TMJ</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>I-R</t>
+  </si>
+  <si>
+    <t>MMD</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
                   <c:v>PIP</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CjacMD</c:v>
+                  <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>TMJ</c:v>
@@ -788,7 +788,7 @@
                   <c:v>PIP</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>CjacMD</c:v>
+                  <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>TMJ</c:v>
@@ -3740,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.74590000000000001</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.73109999999999997</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.78039999999999998</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.74629999999999996</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.74539999999999995</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.73880000000000001</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.75239999999999996</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.74809999999999999</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.74270000000000003</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.74199999999999999</v>
@@ -4941,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4976,7 +4976,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5125,7 +5125,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.89729999999999999</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.86409999999999998</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.96450000000000002</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.89829999999999999</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.8962</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.88119999999999998</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.91020000000000001</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.90229999999999999</v>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.89219999999999999</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.89029999999999998</v>
@@ -6142,7 +6142,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6176,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.3871</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.41089999999999999</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.27960000000000002</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.38590000000000002</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.38719999999999999</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.40620000000000001</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.41799999999999998</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.42570000000000002</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.38800000000000001</v>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.38919999999999999</v>
@@ -7342,7 +7342,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7376,7 +7376,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7525,7 +7525,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.1321</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.14799999999999999</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.1234</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.14979999999999999</v>
@@ -8101,7 +8101,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.18529999999999999</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.19339999999999999</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.44750000000000001</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.68769999999999998</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.35799999999999998</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.13669999999999999</v>
@@ -8542,7 +8542,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8576,7 +8576,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8725,7 +8725,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>5.5999999999999999E-3</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>5.1999999999999998E-3</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>5.4000000000000003E-3</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>5.5999999999999999E-3</v>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>5.5999999999999999E-3</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>5.3E-3</v>
@@ -9517,7 +9517,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>5.4999999999999997E-3</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>5.5999999999999999E-3</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>5.7000000000000002E-3</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>5.7000000000000002E-3</v>
@@ -9742,7 +9742,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9776,7 +9776,7 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9925,7 +9925,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>0.92659999999999998</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>0.94289999999999996</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.91869999999999996</v>
@@ -10465,7 +10465,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>0.9264</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>0.92659999999999998</v>
@@ -10537,7 +10537,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>0.93540000000000001</v>
@@ -10717,7 +10717,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <v>0.9244</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <v>0.92620000000000002</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <v>0.9284</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>0.92720000000000002</v>
@@ -10941,21 +10941,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11028,7 +11028,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <f>Precision!K6</f>
@@ -11096,7 +11096,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <f>Precision!K10</f>
@@ -11266,7 +11266,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <f>Precision!K20</f>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <f>Precision!K22</f>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <f>Precision!K23</f>
@@ -11402,7 +11402,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
         <f>Precision!K28</f>
@@ -11419,7 +11419,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
         <f>Precision!K29</f>
@@ -11436,7 +11436,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
         <f>Precision!K30</f>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <f>Precision!K33</f>
@@ -11513,7 +11513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4529679-CF5D-45C4-9515-E0E767A1086E}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -11524,16 +11524,16 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11588,7 +11588,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <f>MAE!K28</f>

--- a/2_design/asim/artifacts/testing/analyze-user.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F6ADCF-B223-4CAB-BFC0-59B5EC26226D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB2399-6695-4A06-B665-96EB819825E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -3740,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9741,8 +9741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/2_design/asim/artifacts/testing/analyze-user.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EB2399-6695-4A06-B665-96EB819825E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C77083-BB69-4590-8091-743E85EEC024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="53">
   <si>
     <t>Cosine</t>
   </si>
@@ -194,6 +194,12 @@
   <si>
     <t>MMD</t>
   </si>
+  <si>
+    <t>CjacMD</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
 </sst>
 </file>
 
@@ -299,9 +305,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>MAE!$A$2:$A$33</c:f>
+              <c:f>MAE!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Cosine</c:v>
                 </c:pt>
@@ -360,42 +366,45 @@
                   <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>CjacMD</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>TMJ</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Feng</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mu</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>TA</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>TAJ</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>TAN</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>TANJ</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>SMD</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>HSMD</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>HSMDJ</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>QTI</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>QTIJ</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>NNMS</c:v>
                 </c:pt>
               </c:strCache>
@@ -403,10 +412,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MAE!$K$2:$K$33</c:f>
+              <c:f>MAE!$K$2:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0.7712888888888888</c:v>
                 </c:pt>
@@ -465,42 +474,45 @@
                   <c:v>0.83906666666666674</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.77208888888888882</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.77140000000000009</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.78143333333333331</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.77287777777777766</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.76985555555555552</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.77892222222222218</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.77221111111111107</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.7709111111111111</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.77483333333333326</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.77326666666666677</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.77657777777777781</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.78151111111111105</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.77447777777777771</c:v>
                 </c:pt>
               </c:numCache>
@@ -730,9 +742,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'F1'!$A$2:$A$33</c:f>
+              <c:f>'F1'!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Cosine</c:v>
                 </c:pt>
@@ -791,42 +803,45 @@
                   <c:v>MMD</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>CjacMD</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>TMJ</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>Feng</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>Mu</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>TA</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>TAJ</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>TAN</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>TANJ</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>SMD</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>HSMD</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>HSMDJ</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>QTI</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>QTIJ</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>NNMS</c:v>
                 </c:pt>
               </c:strCache>
@@ -834,10 +849,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F1'!$D$2:$D$33</c:f>
+              <c:f>'F1'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>3.0550882233121177E-2</c:v>
                 </c:pt>
@@ -896,42 +911,45 @@
                   <c:v>2.3893010043788968E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1.005525014073036E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2.618903160137669E-2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2.6220478334739266E-2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2.8980317355267713E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>3.0602350058414073E-2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>3.0768333935163691E-2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>3.0551958983225869E-2</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>3.0768911576882271E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>2.6578559186155804E-2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>2.6052630327810397E-2</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2.6282134938860665E-2</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2.6300799115364575E-2</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2.6318692434648353E-2</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2.6322537063748461E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3328,7 +3346,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3369,7 +3387,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3738,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3846,7 +3864,7 @@
         <v>0.86809999999999998</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.77196666666666669</v>
       </c>
     </row>
@@ -4464,468 +4482,486 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.74629999999999996</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.74890000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.75409999999999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.7581</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.76180000000000003</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.77139999999999997</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.79349999999999998</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.86470000000000002</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.77208888888888882</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.74539999999999995</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>0.74790000000000001</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>0.74890000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="1">
-        <v>0.75280000000000002</v>
+        <v>0.75409999999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>0.75660000000000005</v>
+        <v>0.7581</v>
       </c>
       <c r="G22" s="1">
-        <v>0.76049999999999995</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>0.77039999999999997</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>0.79279999999999995</v>
+        <v>0.79349999999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.86729999999999996</v>
+        <v>0.86470000000000002</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.77140000000000009</v>
+        <v>0.77208888888888882</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.73880000000000001</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="C23" s="1">
-        <v>0.74250000000000005</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>0.74560000000000004</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.75170000000000003</v>
+        <v>0.75280000000000002</v>
       </c>
       <c r="F23" s="1">
-        <v>0.76119999999999999</v>
+        <v>0.75660000000000005</v>
       </c>
       <c r="G23" s="1">
-        <v>0.77249999999999996</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="H23" s="1">
-        <v>0.79169999999999996</v>
+        <v>0.77039999999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>0.82620000000000005</v>
+        <v>0.79279999999999995</v>
       </c>
       <c r="J23" s="1">
-        <v>0.90269999999999995</v>
+        <v>0.86729999999999996</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.78143333333333331</v>
+        <v>0.77140000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.75180000000000002</v>
+        <v>0.73880000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.75380000000000003</v>
+        <v>0.74250000000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>0.75470000000000004</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="E24" s="1">
-        <v>0.7581</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="F24" s="1">
-        <v>0.76180000000000003</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>0.76429999999999998</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>0.77259999999999995</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>0.79010000000000002</v>
+        <v>0.82620000000000005</v>
       </c>
       <c r="J24" s="1">
-        <v>0.84870000000000001</v>
+        <v>0.90269999999999995</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.77287777777777766</v>
+        <v>0.78143333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.74490000000000001</v>
+        <v>0.75180000000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>0.74750000000000005</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>0.74860000000000004</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="E25" s="1">
-        <v>0.75270000000000004</v>
+        <v>0.7581</v>
       </c>
       <c r="F25" s="1">
-        <v>0.75680000000000003</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="G25" s="1">
-        <v>0.76060000000000005</v>
+        <v>0.76429999999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>0.77039999999999997</v>
+        <v>0.77259999999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>0.79200000000000004</v>
+        <v>0.79010000000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.85519999999999996</v>
+        <v>0.84870000000000001</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.76985555555555552</v>
+        <v>0.77287777777777766</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.74670000000000003</v>
+        <v>0.74490000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>0.75029999999999997</v>
+        <v>0.74750000000000005</v>
       </c>
       <c r="D26" s="1">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="E26" s="1">
         <v>0.75270000000000004</v>
       </c>
-      <c r="E26" s="1">
-        <v>0.75860000000000005</v>
-      </c>
       <c r="F26" s="1">
-        <v>0.76539999999999997</v>
+        <v>0.75680000000000003</v>
       </c>
       <c r="G26" s="1">
-        <v>0.77129999999999999</v>
+        <v>0.76060000000000005</v>
       </c>
       <c r="H26" s="1">
-        <v>0.78459999999999996</v>
+        <v>0.77039999999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>0.80840000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="J26" s="1">
-        <v>0.87229999999999996</v>
+        <v>0.85519999999999996</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.77892222222222218</v>
+        <v>0.76985555555555552</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.7379</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="C27" s="1">
-        <v>0.74160000000000004</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="E27" s="1">
-        <v>0.75009999999999999</v>
+        <v>0.75860000000000005</v>
       </c>
       <c r="F27" s="1">
-        <v>0.75680000000000003</v>
+        <v>0.76539999999999997</v>
       </c>
       <c r="G27" s="1">
-        <v>0.76329999999999998</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="H27" s="1">
-        <v>0.77790000000000004</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="I27" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.80840000000000001</v>
       </c>
       <c r="J27" s="1">
-        <v>0.87339999999999995</v>
+        <v>0.87229999999999996</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.77221111111111107</v>
+        <v>0.77892222222222218</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.75239999999999996</v>
+        <v>0.7379</v>
       </c>
       <c r="C28" s="1">
-        <v>0.75460000000000005</v>
+        <v>0.74160000000000004</v>
       </c>
       <c r="D28" s="1">
-        <v>0.75570000000000004</v>
+        <v>0.74390000000000001</v>
       </c>
       <c r="E28" s="1">
-        <v>0.75919999999999999</v>
+        <v>0.75009999999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>0.7631</v>
+        <v>0.75680000000000003</v>
       </c>
       <c r="G28" s="1">
-        <v>0.76570000000000005</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="H28" s="1">
-        <v>0.77370000000000005</v>
+        <v>0.77790000000000004</v>
       </c>
       <c r="I28" s="1">
-        <v>0.78849999999999998</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="J28" s="1">
-        <v>0.82530000000000003</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.7709111111111111</v>
+        <v>0.77221111111111107</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.74809999999999999</v>
+        <v>0.75239999999999996</v>
       </c>
       <c r="C29" s="1">
-        <v>0.75049999999999994</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="D29" s="1">
-        <v>0.75139999999999996</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="E29" s="1">
-        <v>0.755</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>0.75880000000000003</v>
+        <v>0.7631</v>
       </c>
       <c r="G29" s="1">
-        <v>0.76219999999999999</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="H29" s="1">
-        <v>0.77190000000000003</v>
+        <v>0.77370000000000005</v>
       </c>
       <c r="I29" s="1">
-        <v>0.7944</v>
+        <v>0.78849999999999998</v>
       </c>
       <c r="J29" s="1">
-        <v>0.88119999999999998</v>
+        <v>0.82530000000000003</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.77483333333333326</v>
+        <v>0.7709111111111111</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.74270000000000003</v>
+        <v>0.74809999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>0.74580000000000002</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="D30" s="1">
-        <v>0.747</v>
+        <v>0.75139999999999996</v>
       </c>
       <c r="E30" s="1">
-        <v>0.75160000000000005</v>
+        <v>0.755</v>
       </c>
       <c r="F30" s="1">
-        <v>0.75619999999999998</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="G30" s="1">
-        <v>0.76139999999999997</v>
+        <v>0.76219999999999999</v>
       </c>
       <c r="H30" s="1">
-        <v>0.77390000000000003</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="I30" s="1">
-        <v>0.80169999999999997</v>
+        <v>0.7944</v>
       </c>
       <c r="J30" s="1">
-        <v>0.87909999999999999</v>
+        <v>0.88119999999999998</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.77326666666666677</v>
+        <v>0.77483333333333326</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.73960000000000004</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="C31" s="1">
-        <v>0.74329999999999996</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="D31" s="1">
-        <v>0.74480000000000002</v>
+        <v>0.747</v>
       </c>
       <c r="E31" s="1">
-        <v>0.75009999999999999</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="F31" s="1">
-        <v>0.75570000000000004</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="G31" s="1">
-        <v>0.76300000000000001</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="H31" s="1">
-        <v>0.77959999999999996</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="I31" s="1">
-        <v>0.81479999999999997</v>
+        <v>0.80169999999999997</v>
       </c>
       <c r="J31" s="1">
-        <v>0.89829999999999999</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.77657777777777781</v>
+        <v>0.77326666666666677</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.73750000000000004</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="C32" s="1">
-        <v>0.74219999999999997</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="D32" s="1">
-        <v>0.74429999999999996</v>
+        <v>0.74480000000000002</v>
       </c>
       <c r="E32" s="1">
-        <v>0.75090000000000001</v>
+        <v>0.75009999999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>0.7581</v>
+        <v>0.75570000000000004</v>
       </c>
       <c r="G32" s="1">
-        <v>0.7681</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="H32" s="1">
-        <v>0.78939999999999999</v>
+        <v>0.77959999999999996</v>
       </c>
       <c r="I32" s="1">
-        <v>0.8306</v>
+        <v>0.81479999999999997</v>
       </c>
       <c r="J32" s="1">
-        <v>0.91249999999999998</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.78151111111111105</v>
+        <v>0.77657777777777781</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.7581</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.7681</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.78939999999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.8306</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78151111111111105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.74199999999999999</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.74529999999999996</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.74660000000000004</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.75170000000000003</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.75670000000000004</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.76259999999999994</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.77610000000000001</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.80559999999999998</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.88370000000000004</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.77447777777777771</v>
       </c>
@@ -4939,15 +4975,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -4978,8 +5014,11 @@
       <c r="K1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5014,8 +5053,12 @@
         <f>AVERAGE(B2:J2)</f>
         <v>0.9632666666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f>SQRT(K2)</f>
+        <v>0.98146149525422877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5047,11 +5090,15 @@
         <v>1.2393000000000001</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.96977777777777796</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L34" si="1">SQRT(K3)</f>
+        <v>0.98477295747688864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5086,8 +5133,12 @@
         <f t="shared" si="0"/>
         <v>0.99486666666666657</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9974300309629075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5122,8 +5173,12 @@
         <f t="shared" si="0"/>
         <v>1.1594444444444447</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0767750203475397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5158,8 +5213,12 @@
         <f t="shared" si="0"/>
         <v>0.96492222222222224</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98230454657515565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5194,8 +5253,12 @@
         <f t="shared" si="0"/>
         <v>0.99048888888888897</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99523308269414401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5230,8 +5293,12 @@
         <f t="shared" si="0"/>
         <v>0.99187777777777775</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9959306089169957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5266,8 +5333,12 @@
         <f t="shared" si="0"/>
         <v>0.98607777777777761</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99301449021541355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5302,8 +5373,12 @@
         <f t="shared" si="0"/>
         <v>0.99397777777777785</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99698434179167417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5338,8 +5413,12 @@
         <f t="shared" si="0"/>
         <v>0.97060000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.985190336940025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -5374,8 +5453,12 @@
         <f t="shared" si="0"/>
         <v>0.97001111111111116</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98489142097548554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5410,8 +5493,12 @@
         <f t="shared" si="0"/>
         <v>0.96467777777777797</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98218011473343214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5446,8 +5533,12 @@
         <f t="shared" si="0"/>
         <v>1.1013333333333335</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0494442973942606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5482,8 +5573,12 @@
         <f t="shared" si="0"/>
         <v>0.96954444444444454</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98465447972598208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -5518,8 +5613,12 @@
         <f t="shared" si="0"/>
         <v>1.066511111111111</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0327202482333302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -5554,8 +5653,12 @@
         <f t="shared" si="0"/>
         <v>0.97073333333333345</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98525800343531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5590,8 +5693,12 @@
         <f t="shared" si="0"/>
         <v>1.1664222222222225</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0800102880168423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5626,8 +5733,12 @@
         <f t="shared" si="0"/>
         <v>0.97413333333333318</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98698193161442083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -5662,474 +5773,555 @@
         <f t="shared" si="0"/>
         <v>1.1229222222222222</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0596802452731777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>0.89829999999999999</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>0.9073</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>0.91200000000000003</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>0.92020000000000002</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>0.93030000000000002</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <v>0.94079999999999997</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>0.96499999999999997</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <v>1.0249999999999999</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J22" s="1">
         <v>1.2299</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>0.96986666666666688</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9848180881090004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>0.8962</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>0.90480000000000005</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0.90910000000000002</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>0.91710000000000003</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>0.92689999999999995</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>0.93759999999999999</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>0.96260000000000001</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I23" s="1">
         <v>1.0237000000000001</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J23" s="1">
         <v>1.238</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
         <v>0.96844444444444433</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98409574963234359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>0.88119999999999998</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>0.89980000000000004</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>0.91210000000000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>0.93369999999999997</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
         <v>0.95960000000000001</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>1.0044</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I24" s="1">
         <v>1.0949</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J24" s="1">
         <v>1.3151999999999999</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="0"/>
         <v>0.98810000000000009</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99403219263764298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>0.90849999999999997</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>0.91639999999999999</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>0.92049999999999998</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>0.92759999999999998</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>0.93669999999999998</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>0.94489999999999996</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>0.9657</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I25" s="1">
         <v>1.0150999999999999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J25" s="1">
         <v>1.1833</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
         <v>0.9687444444444443</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98424816202238563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>0.8952</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>0.90410000000000001</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.90869999999999995</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.91700000000000004</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>0.9274</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>0.93799999999999994</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="1">
         <v>0.9627</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <v>1.0206</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J26" s="1">
         <v>1.1993</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>0.96366666666666667</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98166525183825604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>0.89810000000000001</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>0.90859999999999996</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.91679999999999995</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.93049999999999999</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>0.94699999999999995</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G27" s="1">
         <v>0.96340000000000003</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <v>0.99670000000000003</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I27" s="1">
         <v>1.0643</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J27" s="1">
         <v>1.2514000000000001</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="0"/>
         <v>0.98631111111111103</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99313197064192382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>0.88109999999999999</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>0.8911</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.89849999999999997</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.91269999999999996</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>0.92879999999999996</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>0.94550000000000001</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>0.9819</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>1.0556000000000001</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>1.2523</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
         <v>0.9719444444444445</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98587242807801689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>0.91020000000000001</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>0.91869999999999996</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>0.92310000000000003</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.9304</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
         <v>0.93959999999999999</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
         <v>0.94750000000000001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>0.96730000000000005</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I29" s="1">
         <v>1.0064</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J29" s="1">
         <v>1.1131</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
         <v>0.96181111111111106</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98071969038615259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>0.90229999999999999</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>0.91069999999999995</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>0.91510000000000002</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>0.92249999999999999</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
         <v>0.94169999999999998</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>0.96630000000000005</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <v>1.0290999999999999</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>1.2821</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="0"/>
         <v>0.97797777777777783</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98892758975456729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>0.89219999999999999</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>0.9022</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.90720000000000001</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>0.91659999999999997</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>0.92820000000000003</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>0.94230000000000003</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>0.97350000000000003</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I31" s="1">
         <v>1.0475000000000001</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31" s="1">
         <v>1.2687999999999999</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="0"/>
         <v>0.97538888888888897</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9876177848180383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>0.88770000000000004</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>0.89870000000000005</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>0.90449999999999997</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>0.91579999999999995</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>0.92959999999999998</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
         <v>0.94889999999999997</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>1.0832999999999999</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>1.3227</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="0"/>
         <v>0.98683333333333323</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99339485268111449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>0.88470000000000004</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>0.89790000000000003</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>0.90529999999999999</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>0.91949999999999998</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>0.9375</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G33" s="1">
         <v>0.96389999999999998</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>1.0177</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>1.1275999999999999</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>1.3643000000000001</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="0"/>
         <v>1.0020444444444445</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0010217002864845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.89029999999999998</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.90059999999999996</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.90580000000000005</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.91649999999999998</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.92910000000000004</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.94469999999999998</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.9788</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>1.0581</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>1.282</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.97843333333333327</v>
       </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98915789100291429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6139,10 +6331,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10484FF-0F81-4946-89C5-3E5AAAADF83E}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6247,7 +6439,7 @@
         <v>0.2051</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.35528888888888882</v>
       </c>
     </row>
@@ -6865,468 +7057,486 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.3881</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.38119999999999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.373</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.35270000000000001</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.31309999999999999</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.35210000000000002</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.38719999999999999</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>0.38869999999999999</v>
+        <v>0.38490000000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>0.39250000000000002</v>
+        <v>0.3881</v>
       </c>
       <c r="E22" s="1">
-        <v>0.38890000000000002</v>
+        <v>0.38369999999999999</v>
       </c>
       <c r="F22" s="1">
-        <v>0.38619999999999999</v>
+        <v>0.38119999999999998</v>
       </c>
       <c r="G22" s="1">
-        <v>0.37790000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="H22" s="1">
-        <v>0.35780000000000001</v>
+        <v>0.35270000000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>0.31690000000000002</v>
+        <v>0.31309999999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.20530000000000001</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.35571111111111109</v>
+        <v>0.35210000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.40620000000000001</v>
+        <v>0.38719999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>0.39600000000000002</v>
+        <v>0.38869999999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>0.39410000000000001</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.378</v>
+        <v>0.38890000000000002</v>
       </c>
       <c r="F23" s="1">
-        <v>0.35249999999999998</v>
+        <v>0.38619999999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.31580000000000003</v>
+        <v>0.37790000000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>0.26669999999999999</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>0.1905</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>9.3200000000000005E-2</v>
+        <v>0.20530000000000001</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.31033333333333335</v>
+        <v>0.35571111111111109</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.42209999999999998</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.38150000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>0.38669999999999999</v>
+        <v>0.39410000000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.38390000000000002</v>
+        <v>0.378</v>
       </c>
       <c r="F24" s="1">
-        <v>0.38179999999999997</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="G24" s="1">
-        <v>0.37709999999999999</v>
+        <v>0.31580000000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>0.36130000000000001</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.32790000000000002</v>
+        <v>0.1905</v>
       </c>
       <c r="J24" s="1">
-        <v>0.23250000000000001</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.36164444444444444</v>
+        <v>0.31033333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.43109999999999998</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>0.38790000000000002</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>0.39100000000000001</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.3871</v>
+        <v>0.38390000000000002</v>
       </c>
       <c r="F25" s="1">
-        <v>0.38429999999999997</v>
+        <v>0.38179999999999997</v>
       </c>
       <c r="G25" s="1">
-        <v>0.37609999999999999</v>
+        <v>0.37709999999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>0.35539999999999999</v>
+        <v>0.36130000000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>0.31569999999999998</v>
+        <v>0.32790000000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.2243</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.36143333333333333</v>
+        <v>0.36164444444444444</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.43380000000000002</v>
+        <v>0.43109999999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>0.38690000000000002</v>
+        <v>0.38790000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>0.3901</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.37930000000000003</v>
+        <v>0.3871</v>
       </c>
       <c r="F26" s="1">
-        <v>0.37119999999999997</v>
+        <v>0.38429999999999997</v>
       </c>
       <c r="G26" s="1">
-        <v>0.35830000000000001</v>
+        <v>0.37609999999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>0.33660000000000001</v>
+        <v>0.35539999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>0.29509999999999997</v>
+        <v>0.31569999999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.21479999999999999</v>
+        <v>0.2243</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.35178888888888893</v>
+        <v>0.36143333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44130000000000003</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="C27" s="1">
-        <v>0.39639999999999997</v>
+        <v>0.38690000000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4</v>
+        <v>0.3901</v>
       </c>
       <c r="E27" s="1">
-        <v>0.38979999999999998</v>
+        <v>0.37930000000000003</v>
       </c>
       <c r="F27" s="1">
-        <v>0.38100000000000001</v>
+        <v>0.37119999999999997</v>
       </c>
       <c r="G27" s="1">
-        <v>0.36499999999999999</v>
+        <v>0.35830000000000001</v>
       </c>
       <c r="H27" s="1">
-        <v>0.33810000000000001</v>
+        <v>0.33660000000000001</v>
       </c>
       <c r="I27" s="1">
-        <v>0.2913</v>
+        <v>0.29509999999999997</v>
       </c>
       <c r="J27" s="1">
-        <v>0.21099999999999999</v>
+        <v>0.21479999999999999</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.35709999999999997</v>
+        <v>0.35178888888888893</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.41799999999999998</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="C28" s="1">
-        <v>0.37790000000000001</v>
+        <v>0.39639999999999997</v>
       </c>
       <c r="D28" s="1">
-        <v>0.38179999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="E28" s="1">
-        <v>0.37919999999999998</v>
+        <v>0.38979999999999998</v>
       </c>
       <c r="F28" s="1">
-        <v>0.37769999999999998</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="G28" s="1">
-        <v>0.37390000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="H28" s="1">
-        <v>0.3619</v>
+        <v>0.33810000000000001</v>
       </c>
       <c r="I28" s="1">
-        <v>0.34589999999999999</v>
+        <v>0.2913</v>
       </c>
       <c r="J28" s="1">
-        <v>0.30080000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.36856666666666665</v>
+        <v>0.35709999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.42570000000000002</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C29" s="1">
-        <v>0.3846</v>
+        <v>0.37790000000000001</v>
       </c>
       <c r="D29" s="1">
-        <v>0.38919999999999999</v>
+        <v>0.38179999999999997</v>
       </c>
       <c r="E29" s="1">
-        <v>0.38669999999999999</v>
+        <v>0.37919999999999998</v>
       </c>
       <c r="F29" s="1">
-        <v>0.38350000000000001</v>
+        <v>0.37769999999999998</v>
       </c>
       <c r="G29" s="1">
-        <v>0.37630000000000002</v>
+        <v>0.37390000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>0.35630000000000001</v>
+        <v>0.3619</v>
       </c>
       <c r="I29" s="1">
-        <v>0.31380000000000002</v>
+        <v>0.34589999999999999</v>
       </c>
       <c r="J29" s="1">
-        <v>0.16170000000000001</v>
+        <v>0.30080000000000001</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.35308888888888895</v>
+        <v>0.36856666666666665</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.38800000000000001</v>
+        <v>0.42570000000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>0.3876</v>
+        <v>0.3846</v>
       </c>
       <c r="D30" s="1">
-        <v>0.38969999999999999</v>
+        <v>0.38919999999999999</v>
       </c>
       <c r="E30" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>0.37990000000000002</v>
+        <v>0.38350000000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>0.3674</v>
+        <v>0.37630000000000002</v>
       </c>
       <c r="H30" s="1">
-        <v>0.34139999999999998</v>
+        <v>0.35630000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>0.29709999999999998</v>
+        <v>0.31380000000000002</v>
       </c>
       <c r="J30" s="1">
-        <v>0.19550000000000001</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.3480111111111111</v>
+        <v>0.35308888888888895</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.39119999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>0.38790000000000002</v>
+        <v>0.3876</v>
       </c>
       <c r="D31" s="1">
-        <v>0.39079999999999998</v>
+        <v>0.38969999999999999</v>
       </c>
       <c r="E31" s="1">
-        <v>0.38540000000000002</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>0.37569999999999998</v>
+        <v>0.37990000000000002</v>
       </c>
       <c r="G31" s="1">
-        <v>0.3584</v>
+        <v>0.3674</v>
       </c>
       <c r="H31" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.34139999999999998</v>
       </c>
       <c r="I31" s="1">
-        <v>0.2782</v>
+        <v>0.29709999999999998</v>
       </c>
       <c r="J31" s="1">
-        <v>0.1832</v>
+        <v>0.19550000000000001</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.34197777777777771</v>
+        <v>0.3480111111111111</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.39410000000000001</v>
+        <v>0.39119999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>0.3846</v>
+        <v>0.38790000000000002</v>
       </c>
       <c r="D32" s="1">
-        <v>0.38350000000000001</v>
+        <v>0.39079999999999998</v>
       </c>
       <c r="E32" s="1">
-        <v>0.37540000000000001</v>
+        <v>0.38540000000000002</v>
       </c>
       <c r="F32" s="1">
-        <v>0.36099999999999999</v>
+        <v>0.37569999999999998</v>
       </c>
       <c r="G32" s="1">
-        <v>0.33839999999999998</v>
+        <v>0.3584</v>
       </c>
       <c r="H32" s="1">
-        <v>0.30220000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>0.25459999999999999</v>
+        <v>0.2782</v>
       </c>
       <c r="J32" s="1">
-        <v>0.17319999999999999</v>
+        <v>0.1832</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.32966666666666661</v>
+        <v>0.34197777777777771</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.3846</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.38350000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32966666666666661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.38919999999999999</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.38619999999999999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.38619999999999999</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.38059999999999999</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.37459999999999999</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.35949999999999999</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.33179999999999998</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.28620000000000001</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.18940000000000001</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.34263333333333335</v>
       </c>
@@ -7339,10 +7549,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7447,7 +7657,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.19327777777777777</v>
       </c>
     </row>
@@ -8065,468 +8275,486 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.21260000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.2225</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.15859999999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.12479999999999999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15475555555555559</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.18529999999999999</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>0.2492</v>
+        <v>0.21260000000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>0.28399999999999997</v>
+        <v>0.251</v>
       </c>
       <c r="E22" s="1">
-        <v>0.24759999999999999</v>
+        <v>0.2225</v>
       </c>
       <c r="F22" s="1">
-        <v>0.19489999999999999</v>
+        <v>0.17369999999999999</v>
       </c>
       <c r="G22" s="1">
-        <v>0.17799999999999999</v>
+        <v>0.15859999999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>0.1527</v>
+        <v>0.12479999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>7.8799999999999995E-2</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>3.4500000000000003E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.17833333333333334</v>
+        <v>0.15475555555555559</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.19339999999999999</v>
+        <v>0.18529999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>0.25330000000000003</v>
+        <v>0.2492</v>
       </c>
       <c r="D23" s="1">
-        <v>0.29049999999999998</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.25090000000000001</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="F23" s="1">
-        <v>0.2001</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.18479999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>0.13039999999999999</v>
+        <v>0.1527</v>
       </c>
       <c r="I23" s="1">
-        <v>7.5600000000000001E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>3.1099999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.1789</v>
+        <v>0.17833333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.62209999999999999</v>
+        <v>0.19339999999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>0.1701</v>
+        <v>0.25330000000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>0.373</v>
+        <v>0.29049999999999998</v>
       </c>
       <c r="E24" s="1">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.2001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
         <v>0.1789</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.16270000000000001</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.25580000000000003</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.95E-2</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2669555555555555</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.69350000000000001</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>0.21909999999999999</v>
+        <v>0.1701</v>
       </c>
       <c r="D25" s="1">
-        <v>0.45469999999999999</v>
+        <v>0.373</v>
       </c>
       <c r="E25" s="1">
-        <v>0.2114</v>
+        <v>0.1789</v>
       </c>
       <c r="F25" s="1">
-        <v>0.1923</v>
+        <v>0.16270000000000001</v>
       </c>
       <c r="G25" s="1">
-        <v>0.34949999999999998</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>0.53700000000000003</v>
+        <v>0.25580000000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>2.6599999999999999E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.34106666666666663</v>
+        <v>0.2669555555555555</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.26429999999999998</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>0.17100000000000001</v>
+        <v>0.21909999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>0.35780000000000001</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.17760000000000001</v>
+        <v>0.2114</v>
       </c>
       <c r="F26" s="1">
-        <v>0.1641</v>
+        <v>0.1923</v>
       </c>
       <c r="G26" s="1">
-        <v>0.29409999999999997</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>0.31259999999999999</v>
+        <v>0.38550000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>0.24660000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>1.8499999999999999E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.22295555555555557</v>
+        <v>0.34106666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.64849999999999997</v>
+        <v>0.26429999999999998</v>
       </c>
       <c r="C27" s="1">
-        <v>0.1996</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>0.3085</v>
+        <v>0.35780000000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>0.21010000000000001</v>
+        <v>0.17760000000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>0.18410000000000001</v>
+        <v>0.1641</v>
       </c>
       <c r="G27" s="1">
-        <v>0.34179999999999999</v>
+        <v>0.29409999999999997</v>
       </c>
       <c r="H27" s="1">
-        <v>0.37719999999999998</v>
+        <v>0.31259999999999999</v>
       </c>
       <c r="I27" s="1">
-        <v>0.53320000000000001</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="J27" s="1">
-        <v>2.5100000000000001E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.31423333333333336</v>
+        <v>0.22295555555555557</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.44750000000000001</v>
+        <v>0.64849999999999997</v>
       </c>
       <c r="C28" s="1">
-        <v>0.22239999999999999</v>
+        <v>0.1996</v>
       </c>
       <c r="D28" s="1">
-        <v>0.36449999999999999</v>
+        <v>0.3085</v>
       </c>
       <c r="E28" s="1">
-        <v>0.2676</v>
+        <v>0.21010000000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>0.2155</v>
+        <v>0.18410000000000001</v>
       </c>
       <c r="G28" s="1">
-        <v>0.42609999999999998</v>
+        <v>0.34179999999999999</v>
       </c>
       <c r="H28" s="1">
-        <v>0.28910000000000002</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="I28" s="1">
-        <v>0.50849999999999995</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="J28" s="1">
-        <v>6.3299999999999995E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.31161111111111112</v>
+        <v>0.31423333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.68769999999999998</v>
+        <v>0.44750000000000001</v>
       </c>
       <c r="C29" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.22239999999999999</v>
       </c>
       <c r="D29" s="1">
-        <v>0.35610000000000003</v>
+        <v>0.36449999999999999</v>
       </c>
       <c r="E29" s="1">
-        <v>0.251</v>
+        <v>0.2676</v>
       </c>
       <c r="F29" s="1">
-        <v>0.22070000000000001</v>
+        <v>0.2155</v>
       </c>
       <c r="G29" s="1">
-        <v>0.42849999999999999</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="H29" s="1">
-        <v>0.21310000000000001</v>
+        <v>0.28910000000000002</v>
       </c>
       <c r="I29" s="1">
-        <v>0.46899999999999997</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="J29" s="1">
-        <v>6.4600000000000005E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.32448888888888888</v>
+        <v>0.31161111111111112</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.35799999999999998</v>
+        <v>0.68769999999999998</v>
       </c>
       <c r="C30" s="1">
-        <v>0.39419999999999999</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.79320000000000002</v>
+        <v>0.35610000000000003</v>
       </c>
       <c r="E30" s="1">
-        <v>0.26950000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="F30" s="1">
-        <v>0.1774</v>
+        <v>0.22070000000000001</v>
       </c>
       <c r="G30" s="1">
-        <v>0.14779999999999999</v>
+        <v>0.42849999999999999</v>
       </c>
       <c r="H30" s="1">
-        <v>0.21410000000000001</v>
+        <v>0.21310000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>7.7399999999999997E-2</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="J30" s="1">
-        <v>2.9399999999999999E-2</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.27344444444444443</v>
+        <v>0.32448888888888888</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.27260000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>0.32050000000000001</v>
+        <v>0.39419999999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>0.66290000000000004</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="E31" s="1">
-        <v>0.16159999999999999</v>
+        <v>0.26950000000000002</v>
       </c>
       <c r="F31" s="1">
-        <v>0.15079999999999999</v>
+        <v>0.1774</v>
       </c>
       <c r="G31" s="1">
-        <v>0.12659999999999999</v>
+        <v>0.14779999999999999</v>
       </c>
       <c r="H31" s="1">
-        <v>0.20699999999999999</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="I31" s="1">
-        <v>6.54E-2</v>
+        <v>7.7399999999999997E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>2.3900000000000001E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.22125555555555557</v>
+        <v>0.27344444444444443</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.27379999999999999</v>
+        <v>0.27260000000000001</v>
       </c>
       <c r="C32" s="1">
-        <v>0.27289999999999998</v>
+        <v>0.32050000000000001</v>
       </c>
       <c r="D32" s="1">
-        <v>0.65249999999999997</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="E32" s="1">
-        <v>0.16089999999999999</v>
+        <v>0.16159999999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>0.1525</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="G32" s="1">
-        <v>0.12620000000000001</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="H32" s="1">
-        <v>0.1321</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="I32" s="1">
-        <v>6.4299999999999996E-2</v>
+        <v>6.54E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>2.3699999999999999E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.20654444444444447</v>
+        <v>0.22125555555555557</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.1525</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.1321</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20654444444444447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.13669999999999999</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.21870000000000001</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.19650000000000001</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.1615</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.1701</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.13780000000000001</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.15715555555555552</v>
       </c>
@@ -8539,10 +8767,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8647,7 +8875,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>2.7E-2</v>
       </c>
     </row>
@@ -9265,43 +9493,31 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0500000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D21" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.07E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.6100000000000002E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5.11E-2</v>
-      </c>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>2.6966666666666667E-2</v>
+        <v>1.0166666666666666E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>5.5999999999999999E-3</v>
@@ -9310,423 +9526,459 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E22" s="1">
         <v>2.07E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>2.6200000000000001E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>3.1800000000000002E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="H22" s="1">
         <v>3.7699999999999997E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>4.3900000000000002E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="J22" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>5.11E-2</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>2.7E-2</v>
+        <v>2.6966666666666667E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>5.3E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C23" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>1.46E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E23" s="1">
-        <v>1.9400000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>2.4500000000000001E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="G23" s="1">
-        <v>0.03</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>3.6700000000000003E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>4.7600000000000003E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="J23" s="1">
-        <v>8.14E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>2.9933333333333329E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="C24" s="1">
-        <v>1.04E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>1.55E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E24" s="1">
-        <v>2.07E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="F24" s="1">
-        <v>2.63E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="G24" s="1">
-        <v>3.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H24" s="1">
-        <v>3.9699999999999999E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="I24" s="1">
-        <v>5.0900000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>8.3599999999999994E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>3.1677777777777777E-2</v>
+        <v>2.9933333333333329E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C25" s="1">
-        <v>1.06E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>1.5699999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E25" s="1">
-        <v>2.0899999999999998E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>2.6499999999999999E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="G25" s="1">
-        <v>3.2800000000000003E-2</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="H25" s="1">
-        <v>0.04</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="I25" s="1">
-        <v>5.11E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="J25" s="1">
-        <v>8.3500000000000005E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>3.1855555555555554E-2</v>
+        <v>3.1677777777777777E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>5.3E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C26" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>1.46E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="E26" s="1">
-        <v>1.9400000000000001E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>2.4799999999999999E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="G26" s="1">
-        <v>3.0700000000000002E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="H26" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I26" s="1">
-        <v>5.0999999999999997E-2</v>
+        <v>5.11E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>3.1633333333333333E-2</v>
+        <v>3.1855555555555554E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="C27" s="1">
-        <v>1.01E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E27" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>2.5100000000000001E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G27" s="1">
-        <v>3.1099999999999999E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="H27" s="1">
-        <v>3.85E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>5.1200000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J27" s="1">
         <v>9.0899999999999995E-2</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>3.1866666666666668E-2</v>
+        <v>3.1633333333333333E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>5.4999999999999997E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C28" s="1">
-        <v>1.04E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>1.54E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="E28" s="1">
-        <v>2.0500000000000001E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>2.5899999999999999E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="G28" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="H28" s="1">
-        <v>3.7699999999999997E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>4.48E-2</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="J28" s="1">
-        <v>5.4600000000000003E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>2.7377777777777779E-2</v>
+        <v>3.1866666666666668E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>5.5999999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0500000000000001E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>1.55E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="E29" s="1">
-        <v>2.07E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>2.6100000000000002E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="G29" s="1">
-        <v>3.1800000000000002E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="H29" s="1">
-        <v>3.7600000000000001E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="I29" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="J29" s="1">
-        <v>4.99E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>2.6822222222222223E-2</v>
+        <v>2.7377777777777779E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>5.7000000000000002E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C30" s="1">
-        <v>1.06E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>1.5699999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E30" s="1">
-        <v>2.0799999999999999E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F30" s="1">
-        <v>2.63E-2</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>3.7900000000000003E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>4.3900000000000002E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="J30" s="1">
-        <v>5.0700000000000002E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>2.7066666666666669E-2</v>
+        <v>2.6822222222222223E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0699999999999999E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>2.6499999999999999E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="G31" s="1">
-        <v>3.2199999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="I31" s="1">
-        <v>4.3799999999999999E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="J31" s="1">
-        <v>5.0099999999999999E-2</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>2.7088888888888892E-2</v>
+        <v>2.7066666666666669E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>5.7999999999999996E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0800000000000001E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="E32" s="1">
-        <v>2.1100000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>2.6599999999999999E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="G32" s="1">
-        <v>3.2300000000000002E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="I32" s="1">
-        <v>4.36E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="J32" s="1">
-        <v>4.9799999999999997E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>2.711111111111111E-2</v>
+        <v>2.7088888888888892E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>2.711111111111111E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>1.06E-2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>2.64E-2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>2.7111111111111114E-2</v>
       </c>
@@ -9739,10 +9991,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9847,7 +10099,7 @@
         <v>0.84619999999999995</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K33" si="0">AVERAGE(B3:J3)</f>
+        <f t="shared" ref="K3:K34" si="0">AVERAGE(B3:J3)</f>
         <v>0.90800000000000003</v>
       </c>
     </row>
@@ -10465,468 +10717,492 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
-        <v>0.9264</v>
+        <v>0.92169999999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.91679999999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.91910000000000003</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.91579999999999995</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.9073</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.8498</v>
-      </c>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.90817777777777786</v>
+        <v>0.9175333333333332</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>0.92659999999999998</v>
+        <v>0.9264</v>
       </c>
       <c r="C22" s="1">
-        <v>0.92369999999999997</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>0.92320000000000002</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.91990000000000005</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="F22" s="1">
-        <v>0.91639999999999999</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="G22" s="1">
-        <v>0.91559999999999997</v>
+        <v>0.91549999999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.9073</v>
       </c>
       <c r="I22" s="1">
-        <v>0.89439999999999997</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="J22" s="1">
-        <v>0.84689999999999999</v>
+        <v>0.8498</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>0.90818888888888893</v>
+        <v>0.90817777777777786</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>0.93540000000000001</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>0.93259999999999998</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.92979999999999996</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="F23" s="1">
-        <v>0.92820000000000003</v>
+        <v>0.91639999999999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.92779999999999996</v>
+        <v>0.91559999999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>0.91839999999999999</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>0.89810000000000001</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>0.78990000000000005</v>
+        <v>0.84689999999999999</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.91024444444444463</v>
+        <v>0.90818888888888893</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>0.92420000000000002</v>
+        <v>0.93540000000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>0.92110000000000003</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>0.92110000000000003</v>
+        <v>0.93259999999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.91769999999999996</v>
+        <v>0.92979999999999996</v>
       </c>
       <c r="F24" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="G24" s="1">
-        <v>0.91449999999999998</v>
+        <v>0.92779999999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.91839999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>0.89280000000000004</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.80049999999999999</v>
+        <v>0.78990000000000005</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0.90142222222222224</v>
+        <v>0.91024444444444463</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>0.92649999999999999</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>0.92290000000000005</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>0.9224</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.91910000000000003</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="F25" s="1">
-        <v>0.91539999999999999</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="G25" s="1">
-        <v>0.91490000000000005</v>
+        <v>0.91449999999999998</v>
       </c>
       <c r="H25" s="1">
         <v>0.90600000000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>0.89070000000000005</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="J25" s="1">
-        <v>0.79569999999999996</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0.90151111111111115</v>
+        <v>0.90142222222222224</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>0.93030000000000002</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>0.92720000000000002</v>
+        <v>0.92290000000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>0.92620000000000002</v>
+        <v>0.9224</v>
       </c>
       <c r="E26" s="1">
-        <v>0.92159999999999997</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="F26" s="1">
-        <v>0.91779999999999995</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="G26" s="1">
-        <v>0.91559999999999997</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="H26" s="1">
-        <v>0.90249999999999997</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>0.87470000000000003</v>
+        <v>0.89070000000000005</v>
       </c>
       <c r="J26" s="1">
-        <v>0.72770000000000001</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.89373333333333327</v>
+        <v>0.90151111111111115</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>0.93</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="C27" s="1">
-        <v>0.92669999999999997</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="D27" s="1">
-        <v>0.92559999999999998</v>
+        <v>0.92620000000000002</v>
       </c>
       <c r="E27" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.92159999999999997</v>
       </c>
       <c r="F27" s="1">
-        <v>0.91759999999999997</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="G27" s="1">
-        <v>0.91539999999999999</v>
+        <v>0.91559999999999997</v>
       </c>
       <c r="H27" s="1">
-        <v>0.90259999999999996</v>
+        <v>0.90249999999999997</v>
       </c>
       <c r="I27" s="1">
-        <v>0.87439999999999996</v>
+        <v>0.87470000000000003</v>
       </c>
       <c r="J27" s="1">
-        <v>0.72540000000000004</v>
+        <v>0.72770000000000001</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>0.89318888888888892</v>
+        <v>0.89373333333333327</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>0.9244</v>
+        <v>0.93</v>
       </c>
       <c r="C28" s="1">
-        <v>0.92120000000000002</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="D28" s="1">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.91800000000000004</v>
-      </c>
       <c r="F28" s="1">
-        <v>0.91479999999999995</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="G28" s="1">
-        <v>0.91520000000000001</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="H28" s="1">
-        <v>0.90780000000000005</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="I28" s="1">
-        <v>0.9</v>
+        <v>0.87439999999999996</v>
       </c>
       <c r="J28" s="1">
-        <v>0.87180000000000002</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0.91046666666666676</v>
+        <v>0.89318888888888892</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>0.92620000000000002</v>
+        <v>0.9244</v>
       </c>
       <c r="C29" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>0.9224</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="E29" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F29" s="1">
-        <v>0.91610000000000003</v>
+        <v>0.91479999999999995</v>
       </c>
       <c r="G29" s="1">
-        <v>0.91579999999999995</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="H29" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.90780000000000005</v>
       </c>
       <c r="I29" s="1">
-        <v>0.89480000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="J29" s="1">
-        <v>0.84789999999999999</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.90799999999999992</v>
+        <v>0.91046666666666676</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>0.9284</v>
+        <v>0.92620000000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>0.9244</v>
+        <v>0.92279999999999995</v>
       </c>
       <c r="D30" s="1">
-        <v>0.92379999999999995</v>
+        <v>0.9224</v>
       </c>
       <c r="E30" s="1">
-        <v>0.91990000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F30" s="1">
-        <v>0.91620000000000001</v>
+        <v>0.91610000000000003</v>
       </c>
       <c r="G30" s="1">
-        <v>0.91520000000000001</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="H30" s="1">
-        <v>0.90490000000000004</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="I30" s="1">
-        <v>0.88880000000000003</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="J30" s="1">
-        <v>0.83909999999999996</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0.90674444444444446</v>
+        <v>0.90799999999999992</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>0.92949999999999999</v>
+        <v>0.9284</v>
       </c>
       <c r="C31" s="1">
-        <v>0.92610000000000003</v>
+        <v>0.9244</v>
       </c>
       <c r="D31" s="1">
-        <v>0.92530000000000001</v>
+        <v>0.92379999999999995</v>
       </c>
       <c r="E31" s="1">
-        <v>0.92030000000000001</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="F31" s="1">
-        <v>0.91600000000000004</v>
+        <v>0.91620000000000001</v>
       </c>
       <c r="G31" s="1">
-        <v>0.91349999999999998</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>0.90049999999999997</v>
+        <v>0.90490000000000004</v>
       </c>
       <c r="I31" s="1">
-        <v>0.87960000000000005</v>
+        <v>0.88880000000000003</v>
       </c>
       <c r="J31" s="1">
-        <v>0.82550000000000001</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.90403333333333336</v>
+        <v>0.90674444444444446</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.92959999999999998</v>
+        <v>0.92949999999999999</v>
       </c>
       <c r="C32" s="1">
         <v>0.92610000000000003</v>
       </c>
       <c r="D32" s="1">
-        <v>0.9244</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="E32" s="1">
-        <v>0.91930000000000001</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="F32" s="1">
-        <v>0.91369999999999996</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G32" s="1">
-        <v>0.90980000000000005</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="H32" s="1">
-        <v>0.89439999999999997</v>
+        <v>0.90049999999999997</v>
       </c>
       <c r="I32" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="J32" s="1">
-        <v>0.81710000000000005</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>0.90044444444444438</v>
+        <v>0.90403333333333336</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.9244</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90044444444444438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.92720000000000002</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.92449999999999999</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.92310000000000003</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.91890000000000005</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>0.91479999999999995</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G34" s="1">
         <v>0.9133</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H34" s="1">
         <v>0.90239999999999998</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>0.88539999999999996</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.83509999999999995</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="0"/>
         <v>0.90496666666666647</v>
       </c>
@@ -10939,10 +11215,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10988,7 +11264,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D33" si="0">(B3*C3)/(B3+C3)</f>
+        <f t="shared" ref="D3:D34" si="0">(B3*C3)/(B3+C3)</f>
         <v>2.6220320855614973E-2</v>
       </c>
     </row>
@@ -11283,221 +11559,238 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
-        <v>2.6966666666666667E-2</v>
+        <v>1.0166666666666666E-2</v>
       </c>
       <c r="C21" s="1">
         <f>Recall!K21</f>
-        <v>0.90817777777777786</v>
+        <v>0.9175333333333332</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>2.618903160137669E-2</v>
+        <v>1.005525014073036E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <f>Precision!K22</f>
-        <v>2.7E-2</v>
+        <v>2.6966666666666667E-2</v>
       </c>
       <c r="C22" s="1">
         <f>Recall!K22</f>
-        <v>0.90818888888888893</v>
+        <v>0.90817777777777786</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>2.6220478334739266E-2</v>
+        <v>2.618903160137669E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <f>Precision!K23</f>
-        <v>2.9933333333333329E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C23" s="1">
         <f>Recall!K23</f>
-        <v>0.91024444444444463</v>
+        <v>0.90818888888888893</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>2.8980317355267713E-2</v>
+        <v>2.6220478334739266E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <f>Precision!K24</f>
-        <v>3.1677777777777777E-2</v>
+        <v>2.9933333333333329E-2</v>
       </c>
       <c r="C24" s="1">
         <f>Recall!K24</f>
-        <v>0.90142222222222224</v>
+        <v>0.91024444444444463</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>3.0602350058414073E-2</v>
+        <v>2.8980317355267713E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <f>Precision!K25</f>
-        <v>3.1855555555555554E-2</v>
+        <v>3.1677777777777777E-2</v>
       </c>
       <c r="C25" s="1">
         <f>Recall!K25</f>
-        <v>0.90151111111111115</v>
+        <v>0.90142222222222224</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>3.0768333935163691E-2</v>
+        <v>3.0602350058414073E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <f>Precision!K26</f>
-        <v>3.1633333333333333E-2</v>
+        <v>3.1855555555555554E-2</v>
       </c>
       <c r="C26" s="1">
         <f>Recall!K26</f>
-        <v>0.89373333333333327</v>
+        <v>0.90151111111111115</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>3.0551958983225869E-2</v>
+        <v>3.0768333935163691E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <f>Precision!K27</f>
-        <v>3.1866666666666668E-2</v>
+        <v>3.1633333333333333E-2</v>
       </c>
       <c r="C27" s="1">
         <f>Recall!K27</f>
-        <v>0.89318888888888892</v>
+        <v>0.89373333333333327</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>3.0768911576882271E-2</v>
+        <v>3.0551958983225869E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <f>Precision!K28</f>
-        <v>2.7377777777777779E-2</v>
+        <v>3.1866666666666668E-2</v>
       </c>
       <c r="C28" s="1">
         <f>Recall!K28</f>
-        <v>0.91046666666666676</v>
+        <v>0.89318888888888892</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>2.6578559186155804E-2</v>
+        <v>3.0768911576882271E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <f>Precision!K29</f>
-        <v>2.6822222222222223E-2</v>
+        <v>2.7377777777777779E-2</v>
       </c>
       <c r="C29" s="1">
         <f>Recall!K29</f>
-        <v>0.90799999999999992</v>
+        <v>0.91046666666666676</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>2.6052630327810397E-2</v>
+        <v>2.6578559186155804E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1">
         <f>Precision!K30</f>
-        <v>2.7066666666666669E-2</v>
+        <v>2.6822222222222223E-2</v>
       </c>
       <c r="C30" s="1">
         <f>Recall!K30</f>
-        <v>0.90674444444444446</v>
+        <v>0.90799999999999992</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>2.6282134938860665E-2</v>
+        <v>2.6052630327810397E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1">
         <f>Precision!K31</f>
-        <v>2.7088888888888892E-2</v>
+        <v>2.7066666666666669E-2</v>
       </c>
       <c r="C31" s="1">
         <f>Recall!K31</f>
-        <v>0.90403333333333336</v>
+        <v>0.90674444444444446</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>2.6300799115364575E-2</v>
+        <v>2.6282134938860665E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <f>Precision!K32</f>
-        <v>2.711111111111111E-2</v>
+        <v>2.7088888888888892E-2</v>
       </c>
       <c r="C32" s="1">
         <f>Recall!K32</f>
-        <v>0.90044444444444438</v>
+        <v>0.90403333333333336</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>2.6318692434648353E-2</v>
+        <v>2.6300799115364575E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
         <f>Precision!K33</f>
-        <v>2.7111111111111114E-2</v>
+        <v>2.711111111111111E-2</v>
       </c>
       <c r="C33" s="1">
         <f>Recall!K33</f>
+        <v>0.90044444444444438</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6318692434648353E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <f>Precision!K34</f>
+        <v>2.7111111111111114E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <f>Recall!K34</f>
         <v>0.90496666666666647</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>2.6322537063748461E-2</v>
       </c>
@@ -11514,7 +11807,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11566,23 +11859,23 @@
         <v>26</v>
       </c>
       <c r="B3" s="1">
-        <f>MAE!K25</f>
+        <f>MAE!K26</f>
         <v>0.76985555555555552</v>
       </c>
       <c r="C3" s="1">
-        <f>MSE!K25</f>
+        <f>MSE!K26</f>
         <v>0.96366666666666667</v>
       </c>
       <c r="D3" s="1">
-        <f>1-('R'!K25)</f>
+        <f>1-('R'!K26)</f>
         <v>0.63856666666666673</v>
       </c>
       <c r="E3" s="1">
-        <f>1-(Precision!K25)</f>
+        <f>1-(Precision!K26)</f>
         <v>0.96814444444444447</v>
       </c>
       <c r="F3" s="1">
-        <f>1-(Recall!K25)</f>
+        <f>1-(Recall!K26)</f>
         <v>9.8488888888888848E-2</v>
       </c>
     </row>
@@ -11591,23 +11884,23 @@
         <v>36</v>
       </c>
       <c r="B4" s="1">
-        <f>MAE!K28</f>
+        <f>MAE!K29</f>
         <v>0.7709111111111111</v>
       </c>
       <c r="C4" s="1">
-        <f>MSE!K28</f>
+        <f>MSE!K29</f>
         <v>0.96181111111111106</v>
       </c>
       <c r="D4" s="1">
-        <f>1-('R'!K28)</f>
+        <f>1-('R'!K29)</f>
         <v>0.63143333333333329</v>
       </c>
       <c r="E4" s="1">
-        <f>1-(Precision!K28)</f>
+        <f>1-(Precision!K29)</f>
         <v>0.97262222222222228</v>
       </c>
       <c r="F4" s="1">
-        <f>1-(Recall!K28)</f>
+        <f>1-(Recall!K29)</f>
         <v>8.9533333333333243E-2</v>
       </c>
     </row>

--- a/2_design/asim/artifacts/testing/analyze-user.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C77083-BB69-4590-8091-743E85EEC024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF20AD3-4ED7-4803-9E6D-E61FCCA389A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -474,7 +474,7 @@
                   <c:v>0.83906666666666674</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.8309333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.77208888888888882</c:v>
@@ -911,7 +911,7 @@
                   <c:v>2.3893010043788968E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.005525014073036E-2</c:v>
+                  <c:v>2.8001456784989682E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.618903160137669E-2</c:v>
@@ -4484,18 +4484,36 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.7944</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.8427</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8309333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,8 +4995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D845ED3B-1C35-4974-BD89-89002EC8961B}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5782,22 +5800,40 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="1" t="e">
+      <c r="B21" s="1">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.0385</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0682</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.1306</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.2538</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.5665</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1066888888888888</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0519928178884534</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7059,18 +7095,36 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.191</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16787777777777774</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7551,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2A596-55B6-400A-BEAB-8F453735749D}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8277,18 +8331,36 @@
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.2336</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.2364</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.2384</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.1956</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17380000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8769,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD571D8-A6EF-4FD2-AC2E-36D5484BA4FE}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9504,15 +9576,27 @@
       <c r="D21" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="E21" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.04E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>7.2599999999999998E-2</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0166666666666666E-2</v>
+        <v>2.8922222222222221E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9993,8 +10077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037ECD2-FD94-4DA2-BE1D-F9E27FEA143C}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10728,15 +10812,27 @@
       <c r="D21" s="1">
         <v>0.91410000000000002</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="E21" s="1">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.7238</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.9175333333333332</v>
+        <v>0.87955555555555553</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11217,7 +11313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -11563,15 +11659,15 @@
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
-        <v>1.0166666666666666E-2</v>
+        <v>2.8922222222222221E-2</v>
       </c>
       <c r="C21" s="1">
         <f>Recall!K21</f>
-        <v>0.9175333333333332</v>
+        <v>0.87955555555555553</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.005525014073036E-2</v>
+        <v>2.8001456784989682E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/2_design/asim/artifacts/testing/analyze-user.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05B7B0-37E1-4C61-BF3E-E717E8712E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC73548-DB89-478A-9412-CC751EECB888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="8" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,18 @@
     <sheet name="Radar" sheetId="14" r:id="rId8"/>
     <sheet name="Radar 2" sheetId="15" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Radar 2'!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Radar 2'!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Radar 2'!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Radar 2'!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Radar 2'!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Radar 2'!$A$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Radar 2'!$A$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Radar 2'!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Radar 2'!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Radar 2'!$B$3:$D$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="68">
   <si>
     <t>Cosine</t>
   </si>
@@ -246,9 +258,6 @@
   <si>
     <t>IMAE</t>
   </si>
-  <si>
-    <t>Recal</t>
-  </si>
 </sst>
 </file>
 
@@ -526,7 +535,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.78381111111111101</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.78446666666666653</c:v>
@@ -544,13 +553,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.81323333333333325</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.7723444444444445</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.7846777777777777</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.77343333333333342</c:v>
@@ -565,13 +574,13 @@
                   <c:v>0.77057777777777792</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.77145555555555556</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.77344444444444449</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.77120000000000011</c:v>
@@ -622,7 +631,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.78254444444444438</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.77892222222222218</c:v>
@@ -1029,145 +1038,145 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>3.0550882233121177E-2</c:v>
+                  <c:v>6.1101764466242353E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6220320855614973E-2</c:v>
+                  <c:v>5.2440641711229946E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0762517619587131E-2</c:v>
+                  <c:v>6.1525035239174262E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6556829523158201E-2</c:v>
+                  <c:v>5.3113659046316403E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0717018491634735E-2</c:v>
+                  <c:v>6.143403698326947E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5397940158153453E-2</c:v>
+                  <c:v>3.6173988696146735E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5261127614298306E-2</c:v>
+                  <c:v>6.0821558296873274E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.832667303226415E-2</c:v>
+                  <c:v>5.66533460645283E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8597673715062506E-2</c:v>
+                  <c:v>5.7195347430125013E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8379304639229243E-2</c:v>
+                  <c:v>5.6758609278458487E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.856626388610544E-2</c:v>
+                  <c:v>5.7132527772210881E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4046543080282163E-2</c:v>
+                  <c:v>3.2879603971928593E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3947698953877432E-2</c:v>
+                  <c:v>5.6385536747375183E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6189040840897931E-2</c:v>
+                  <c:v>5.2378081681795863E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.2668728848995793E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0561304145984361E-2</c:v>
+                  <c:v>6.1122608291968722E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0717044264635885E-2</c:v>
+                  <c:v>6.143408852927177E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9561785978249393E-2</c:v>
+                  <c:v>3.9123571956498786E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0819040961315932E-2</c:v>
+                  <c:v>6.1638081922631864E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5765712579957358E-2</c:v>
+                  <c:v>6.1781354903675437E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.566867650513637E-2</c:v>
+                  <c:v>3.1337353010272739E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5571203291052452E-2</c:v>
+                  <c:v>6.150999645868397E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0849099672150264E-2</c:v>
+                  <c:v>6.1698199344300528E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.412126438400447E-2</c:v>
+                  <c:v>4.8242528768008941E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.0550818462124554E-2</c:v>
+                  <c:v>6.1101636924249109E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9558691328720636E-2</c:v>
+                  <c:v>5.9117382657441271E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0903927118765016E-2</c:v>
+                  <c:v>6.1807854237530033E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5843835313622549E-2</c:v>
+                  <c:v>3.9469481075021386E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.576634857155013E-2</c:v>
+                  <c:v>3.1532697143100259E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5649651405896657E-2</c:v>
+                  <c:v>3.905211880203803E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3893010043788968E-2</c:v>
+                  <c:v>4.7786020087577936E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8001456784989682E-2</c:v>
+                  <c:v>5.6002913569979364E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.618903160137669E-2</c:v>
+                  <c:v>5.2378063202753379E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.6220478334739266E-2</c:v>
+                  <c:v>5.2440956669478532E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8980317355267713E-2</c:v>
+                  <c:v>5.7960634710535426E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.0602350058414073E-2</c:v>
+                  <c:v>6.1204700116828145E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0768333935163691E-2</c:v>
+                  <c:v>6.1536667870327383E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2916337123745821E-2</c:v>
+                  <c:v>2.5832674247491642E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2793909670306029E-2</c:v>
+                  <c:v>6.09666321023105E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.0551958983225869E-2</c:v>
+                  <c:v>6.1103917966451739E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.0768911576882271E-2</c:v>
+                  <c:v>6.1537823153764541E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.6578559186155804E-2</c:v>
+                  <c:v>5.3157118372311608E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.6052630327810397E-2</c:v>
+                  <c:v>5.2105260655620794E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6282134938860665E-2</c:v>
+                  <c:v>5.256426987772133E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6300799115364575E-2</c:v>
+                  <c:v>5.260159823072915E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.6318692434648353E-2</c:v>
+                  <c:v>5.2637384869296706E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.6322537063748461E-2</c:v>
+                  <c:v>5.2645074127496923E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,6 +1925,399 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Radar 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Radar 2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>IMAE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Radar 2'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84602888888888894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1855555555555554E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90151111111111115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAC7-4390-AC0C-C399C964DE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Radar 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Radar 2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>IMAE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Radar 2'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84588444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1911111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90055555555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAC7-4390-AC0C-C399C964DE16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="303583264"/>
+        <c:axId val="303585560"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="303583264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303585560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="303585560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303583264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1997,6 +2399,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3551,6 +3993,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3660,6 +4607,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485833B9-2B98-4ACA-9A62-0B71BD859459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3975,7 +4963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4215,18 +5203,36 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8" s="1">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.77059999999999995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78381111111111101</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4395,18 +5401,36 @@
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14" s="1">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.77559999999999996</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81323333333333325</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4449,18 +5473,36 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16" s="1">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.7581</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7846777777777777</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -4611,18 +5653,36 @@
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.755</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77145555555555556</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4647,18 +5707,36 @@
       <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B23" s="1">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.8569</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77344444444444449</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5169,18 +6247,36 @@
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B40" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.76429999999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.7651</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78254444444444438</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5749,22 +6845,40 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="1" t="e">
+      <c r="B8" s="1">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.9657</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.9738</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.1935</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99407777777777773</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.99703449176935588</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5953,22 +7067,40 @@
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="1" t="e">
+      <c r="B14" s="1">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.0239</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0593999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.1028</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.1806000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.3681000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0622</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0306308747558459</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -6015,22 +7147,40 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="1" t="e">
+      <c r="B16" s="1">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.9214</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.0666</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.3687</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99512222222222213</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.99755812974594227</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -6197,22 +7347,40 @@
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="1" t="e">
+      <c r="B21" s="1">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.9758</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.0497000000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.2467999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97316666666666662</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.98649210167475065</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -6241,22 +7409,40 @@
       <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="1" t="e">
+      <c r="B23" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.0268999999999999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.2088000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97383333333333333</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.98682994144550218</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6831,22 +8017,40 @@
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="1" t="e">
+      <c r="B40" s="1">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.9516</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.9698</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.0378000000000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.1956</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99092222222222226</v>
+      </c>
+      <c r="L40" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.99545076333398941</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -7422,18 +8626,36 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8" s="1">
+        <v>0.3634</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.3584</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33850000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7602,18 +8824,36 @@
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14" s="1">
+        <v>0.33789999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.1515</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21092222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7656,18 +8896,36 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16" s="1">
+        <v>0.3216</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.2656</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.2233</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23245555555555558</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7818,18 +9076,36 @@
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21" s="1">
+        <v>0.39019999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.3906</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.39360000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.3901</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.3836</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.37119999999999997</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.34560000000000002</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.30070000000000002</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.2135</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35323333333333329</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7854,18 +9130,36 @@
       <c r="A23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B23" s="1">
+        <v>0.38629999999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.38790000000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.2258</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35663333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -8376,18 +9670,36 @@
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B40" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.2288</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34216666666666673</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8928,18 +10240,36 @@
       <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8" s="1">
+        <v>0.1895</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.44019999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1978</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1976</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23672222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9126,18 +10456,36 @@
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15" s="1">
+        <v>0.34160000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.2147</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7.51E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26406666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9180,18 +10528,36 @@
       <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="1">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.4325</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.2064</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.2074</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.1171</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23846666666666672</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9342,18 +10708,36 @@
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B22" s="1">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2213</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.4783</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.2016</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.2409</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.1037</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23708888888888888</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9378,18 +10762,36 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B24" s="1">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.2329</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.20130000000000001</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.37440000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.1124</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30675555555555556</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9900,18 +11302,36 @@
       <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B41" s="1">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.90649999999999997</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="I41" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34492222222222219</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10213,7 +11633,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10449,13 +11869,15 @@
       <c r="F7" s="1">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>1.566E-2</v>
+        <v>1.8449999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10477,13 +11899,21 @@
       <c r="F8" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="1">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8.3500000000000005E-2</v>
+      </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5520000000000001E-2</v>
+        <v>3.1477777777777778E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10649,13 +12079,15 @@
       <c r="F13" s="1">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>2.9100000000000001E-2</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>1.426E-2</v>
+        <v>1.6733333333333333E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10677,13 +12109,21 @@
       <c r="F14" s="1">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.56E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4.65E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8.0100000000000005E-2</v>
+      </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>1.4160000000000001E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10726,18 +12166,36 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.76E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2388888888888889E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10903,13 +12361,21 @@
       <c r="F21" s="1">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="G21" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.3099999999999993E-2</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>1.6040000000000002E-2</v>
+        <v>3.1988888888888886E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -10959,13 +12425,21 @@
       <c r="F23" s="1">
         <v>2.6499999999999999E-2</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G23" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5.11E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8.3599999999999994E-2</v>
+      </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>1.584E-2</v>
+        <v>3.1844444444444439E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -11168,12 +12642,14 @@
         <v>2.69E-2</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>1.6120000000000002E-2</v>
+        <v>2.0166666666666666E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -11224,12 +12700,14 @@
         <v>2.6599999999999999E-2</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>1.592E-2</v>
+        <v>1.9949999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -11526,14 +13004,24 @@
       <c r="E40" s="1">
         <v>2.06E-2</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F40" s="1">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.95E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>8.3500000000000005E-2</v>
+      </c>
       <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v>1.2974999999999999E-2</v>
+        <v>3.1555555555555559E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -11835,7 +13323,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B40" sqref="B40:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12071,13 +13559,15 @@
       <c r="F7" s="1">
         <v>0.91520000000000001</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0.91500000000000004</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>0.92013999999999996</v>
+        <v>0.91928333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12099,13 +13589,21 @@
       <c r="F8" s="1">
         <v>0.91</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="1">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.80059999999999998</v>
+      </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0.91493999999999998</v>
+        <v>0.89715555555555559</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12271,13 +13769,15 @@
       <c r="F13" s="1">
         <v>0.93330000000000002</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1">
+        <v>0.93120000000000003</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0.9383800000000001</v>
+        <v>0.93718333333333348</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12299,13 +13799,21 @@
       <c r="F14" s="1">
         <v>0.9214</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="1">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.90610000000000002</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.77869999999999995</v>
+      </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>0.93028</v>
+        <v>0.90429999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12348,18 +13856,36 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16" s="1">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.37569999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45295555555555556</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -12525,13 +14051,21 @@
       <c r="F21" s="1">
         <v>0.91600000000000004</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="G21" s="1">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.78600000000000003</v>
+      </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>0.92196000000000011</v>
+        <v>0.89978888888888897</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -12581,13 +14115,21 @@
       <c r="F23" s="1">
         <v>0.91320000000000001</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G23" s="1">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.79569999999999996</v>
+      </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.91759999999999997</v>
+        <v>0.89896666666666669</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -12790,12 +14332,14 @@
         <v>0.91859999999999997</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>0.90439999999999998</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.92481999999999986</v>
+        <v>0.92141666666666655</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -12846,12 +14390,14 @@
         <v>0.9163</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>0.90539999999999998</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>0.92155999999999982</v>
+        <v>0.91886666666666661</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -13148,14 +14694,24 @@
       <c r="E40" s="1">
         <v>0.91310000000000002</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F40" s="1">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v>0.91667500000000002</v>
+        <v>0.89711111111111108</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -13456,8 +15012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8A42B3-E71A-4089-B0F9-46956E1D2CB1}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13486,8 +15042,8 @@
         <v>0.90175555555555553</v>
       </c>
       <c r="D2" s="2">
-        <f>(B2*C2)/(B2+C2)</f>
-        <v>3.0550882233121177E-2</v>
+        <f>2*(B2*C2)/(B2+C2)</f>
+        <v>6.1101764466242353E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13503,8 +15059,8 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D48" si="0">(B3*C3)/(B3+C3)</f>
-        <v>2.6220320855614973E-2</v>
+        <f>2*(B3*C3)/(B3+C3)</f>
+        <v>5.2440641711229946E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13520,8 +15076,8 @@
         <v>0.89654444444444437</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0762517619587131E-2</v>
+        <f>2*(B4*C4)/(B4+C4)</f>
+        <v>6.1525035239174262E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -13537,8 +15093,8 @@
         <v>0.90954444444444449</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6556829523158201E-2</v>
+        <f>2*(B5*C5)/(B5+C5)</f>
+        <v>5.3113659046316403E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -13554,8 +15110,8 @@
         <v>0.90195555555555551</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0717018491634735E-2</v>
+        <f>2*(B6*C6)/(B6+C6)</f>
+        <v>6.143403698326947E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -13564,15 +15120,15 @@
       </c>
       <c r="B7" s="1">
         <f>Precision!K7</f>
-        <v>1.566E-2</v>
+        <v>1.8449999999999998E-2</v>
       </c>
       <c r="C7" s="1">
         <f>Recall!K7</f>
-        <v>0.92013999999999996</v>
+        <v>0.91928333333333334</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5397940158153453E-2</v>
+        <f>2*(B7*C7)/(B7+C7)</f>
+        <v>3.6173988696146735E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -13581,15 +15137,15 @@
       </c>
       <c r="B8" s="1">
         <f>Precision!K8</f>
-        <v>1.5520000000000001E-2</v>
+        <v>3.1477777777777778E-2</v>
       </c>
       <c r="C8" s="1">
         <f>Recall!K8</f>
-        <v>0.91493999999999998</v>
+        <v>0.89715555555555559</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5261127614298306E-2</v>
+        <f>2*(B8*C8)/(B8+C8)</f>
+        <v>6.0821558296873274E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -13605,8 +15161,8 @@
         <v>0.91333333333333344</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.832667303226415E-2</v>
+        <f>2*(B9*C9)/(B9+C9)</f>
+        <v>5.66533460645283E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -13622,8 +15178,8 @@
         <v>0.91316666666666657</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8597673715062506E-2</v>
+        <f>2*(B10*C10)/(B10+C10)</f>
+        <v>5.7195347430125013E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -13639,8 +15195,8 @@
         <v>0.91382222222222231</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8379304639229243E-2</v>
+        <f>2*(B11*C11)/(B11+C11)</f>
+        <v>5.6758609278458487E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -13656,8 +15212,8 @@
         <v>0.91303333333333336</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.856626388610544E-2</v>
+        <f>2*(B12*C12)/(B12+C12)</f>
+        <v>5.7132527772210881E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -13666,15 +15222,15 @@
       </c>
       <c r="B13" s="1">
         <f>Precision!K13</f>
-        <v>1.426E-2</v>
+        <v>1.6733333333333333E-2</v>
       </c>
       <c r="C13" s="1">
         <f>Recall!K13</f>
-        <v>0.9383800000000001</v>
+        <v>0.93718333333333348</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4046543080282163E-2</v>
+        <f>2*(B13*C13)/(B13+C13)</f>
+        <v>3.2879603971928593E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13683,15 +15239,15 @@
       </c>
       <c r="B14" s="1">
         <f>Precision!K14</f>
-        <v>1.4160000000000001E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="C14" s="1">
         <f>Recall!K14</f>
-        <v>0.93028</v>
+        <v>0.90429999999999999</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3947698953877432E-2</v>
+        <f>2*(B14*C14)/(B14+C14)</f>
+        <v>5.6385536747375183E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13707,25 +15263,25 @@
         <v>0.90818888888888893</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6189040840897931E-2</v>
+        <f>2*(B15*C15)/(B15+C15)</f>
+        <v>5.2378081681795863E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="e">
+      <c r="B16" s="1">
         <f>Precision!K16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="1" t="e">
+        <v>2.2388888888888889E-2</v>
+      </c>
+      <c r="C16" s="1">
         <f>Recall!K16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.45295555555555556</v>
+      </c>
+      <c r="D16" s="2">
+        <f>2*(B16*C16)/(B16+C16)</f>
+        <v>4.2668728848995793E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -13741,8 +15297,8 @@
         <v>0.90179999999999993</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0561304145984361E-2</v>
+        <f>2*(B17*C17)/(B17+C17)</f>
+        <v>6.1122608291968722E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -13758,8 +15314,8 @@
         <v>0.90197777777777788</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0717044264635885E-2</v>
+        <f>2*(B18*C18)/(B18+C18)</f>
+        <v>6.143408852927177E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -13775,8 +15331,8 @@
         <v>0.4003666666666667</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9561785978249393E-2</v>
+        <f>2*(B19*C19)/(B19+C19)</f>
+        <v>3.9123571956498786E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13792,8 +15348,8 @@
         <v>0.90055555555555555</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0819040961315932E-2</v>
+        <f>2*(B20*C20)/(B20+C20)</f>
+        <v>6.1638081922631864E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -13802,15 +15358,15 @@
       </c>
       <c r="B21" s="1">
         <f>Precision!K21</f>
-        <v>1.6040000000000002E-2</v>
+        <v>3.1988888888888886E-2</v>
       </c>
       <c r="C21" s="1">
         <f>Recall!K21</f>
-        <v>0.92196000000000011</v>
+        <v>0.89978888888888897</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5765712579957358E-2</v>
+        <f>2*(B21*C21)/(B21+C21)</f>
+        <v>6.1781354903675437E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -13826,8 +15382,8 @@
         <v>0.92052000000000012</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>1.566867650513637E-2</v>
+        <f>2*(B22*C22)/(B22+C22)</f>
+        <v>3.1337353010272739E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -13836,15 +15392,15 @@
       </c>
       <c r="B23" s="1">
         <f>Precision!K23</f>
-        <v>1.584E-2</v>
+        <v>3.1844444444444439E-2</v>
       </c>
       <c r="C23" s="1">
         <f>Recall!K23</f>
-        <v>0.91759999999999997</v>
+        <v>0.89896666666666669</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5571203291052452E-2</v>
+        <f>2*(B23*C23)/(B23+C23)</f>
+        <v>6.150999645868397E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -13860,8 +15416,8 @@
         <v>0.89967777777777769</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0849099672150264E-2</v>
+        <f>2*(B24*C24)/(B24+C24)</f>
+        <v>6.1698199344300528E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -13877,8 +15433,8 @@
         <v>0.89562222222222232</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>2.412126438400447E-2</v>
+        <f>2*(B25*C25)/(B25+C25)</f>
+        <v>4.8242528768008941E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -13894,8 +15450,8 @@
         <v>0.90169999999999995</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0550818462124554E-2</v>
+        <f>2*(B26*C26)/(B26+C26)</f>
+        <v>6.1101636924249109E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -13911,8 +15467,8 @@
         <v>0.88691111111111121</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9558691328720636E-2</v>
+        <f>2*(B27*C27)/(B27+C27)</f>
+        <v>5.9117382657441271E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -13928,8 +15484,8 @@
         <v>0.90224444444444452</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0903927118765016E-2</v>
+        <f>2*(B28*C28)/(B28+C28)</f>
+        <v>6.1807854237530033E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -13938,15 +15494,15 @@
       </c>
       <c r="B29" s="1">
         <f>Precision!K29</f>
-        <v>1.6120000000000002E-2</v>
+        <v>2.0166666666666666E-2</v>
       </c>
       <c r="C29" s="1">
         <f>Recall!K29</f>
-        <v>0.92481999999999986</v>
+        <v>0.92141666666666655</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5843835313622549E-2</v>
+        <f>2*(B29*C29)/(B29+C29)</f>
+        <v>3.9469481075021386E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -13962,8 +15518,8 @@
         <v>0.92413999999999985</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>1.576634857155013E-2</v>
+        <f>2*(B30*C30)/(B30+C30)</f>
+        <v>3.1532697143100259E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -13972,15 +15528,15 @@
       </c>
       <c r="B31" s="1">
         <f>Precision!K31</f>
-        <v>1.592E-2</v>
+        <v>1.9949999999999999E-2</v>
       </c>
       <c r="C31" s="1">
         <f>Recall!K31</f>
-        <v>0.92155999999999982</v>
+        <v>0.91886666666666661</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5649651405896657E-2</v>
+        <f>2*(B31*C31)/(B31+C31)</f>
+        <v>3.905211880203803E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -13996,8 +15552,8 @@
         <v>0.88553333333333351</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3893010043788968E-2</v>
+        <f>2*(B32*C32)/(B32+C32)</f>
+        <v>4.7786020087577936E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -14013,8 +15569,8 @@
         <v>0.87955555555555553</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8001456784989682E-2</v>
+        <f>2*(B33*C33)/(B33+C33)</f>
+        <v>5.6002913569979364E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -14030,8 +15586,8 @@
         <v>0.90817777777777786</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>2.618903160137669E-2</v>
+        <f>2*(B34*C34)/(B34+C34)</f>
+        <v>5.2378063202753379E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -14047,8 +15603,8 @@
         <v>0.90818888888888893</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6220478334739266E-2</v>
+        <f>2*(B35*C35)/(B35+C35)</f>
+        <v>5.2440956669478532E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -14064,8 +15620,8 @@
         <v>0.91024444444444463</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8980317355267713E-2</v>
+        <f>2*(B36*C36)/(B36+C36)</f>
+        <v>5.7960634710535426E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -14081,8 +15637,8 @@
         <v>0.90142222222222224</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0602350058414073E-2</v>
+        <f>2*(B37*C37)/(B37+C37)</f>
+        <v>6.1204700116828145E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -14098,8 +15654,8 @@
         <v>0.90151111111111115</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0768333935163691E-2</v>
+        <f>2*(B38*C38)/(B38+C38)</f>
+        <v>6.1536667870327383E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -14115,8 +15671,8 @@
         <v>0.92127499999999996</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2916337123745821E-2</v>
+        <f>2*(B39*C39)/(B39+C39)</f>
+        <v>2.5832674247491642E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -14125,15 +15681,15 @@
       </c>
       <c r="B40" s="1">
         <f>Precision!K40</f>
-        <v>1.2974999999999999E-2</v>
+        <v>3.1555555555555559E-2</v>
       </c>
       <c r="C40" s="1">
         <f>Recall!K40</f>
-        <v>0.91667500000000002</v>
+        <v>0.89711111111111108</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2793909670306029E-2</v>
+        <f>2*(B40*C40)/(B40+C40)</f>
+        <v>6.09666321023105E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -14149,8 +15705,8 @@
         <v>0.89373333333333327</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0551958983225869E-2</v>
+        <f>2*(B41*C41)/(B41+C41)</f>
+        <v>6.1103917966451739E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -14166,8 +15722,8 @@
         <v>0.89318888888888892</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>3.0768911576882271E-2</v>
+        <f>2*(B42*C42)/(B42+C42)</f>
+        <v>6.1537823153764541E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -14183,8 +15739,8 @@
         <v>0.91046666666666676</v>
       </c>
       <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6578559186155804E-2</v>
+        <f>2*(B43*C43)/(B43+C43)</f>
+        <v>5.3157118372311608E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -14200,8 +15756,8 @@
         <v>0.90799999999999992</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6052630327810397E-2</v>
+        <f>2*(B44*C44)/(B44+C44)</f>
+        <v>5.2105260655620794E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -14217,8 +15773,8 @@
         <v>0.90674444444444446</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6282134938860665E-2</v>
+        <f>2*(B45*C45)/(B45+C45)</f>
+        <v>5.256426987772133E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -14234,8 +15790,8 @@
         <v>0.90403333333333336</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6300799115364575E-2</v>
+        <f>2*(B46*C46)/(B46+C46)</f>
+        <v>5.260159823072915E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -14251,8 +15807,8 @@
         <v>0.90044444444444438</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6318692434648353E-2</v>
+        <f>2*(B47*C47)/(B47+C47)</f>
+        <v>5.2637384869296706E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -14268,8 +15824,8 @@
         <v>0.90496666666666647</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6322537063748461E-2</v>
+        <f>2*(B48*C48)/(B48+C48)</f>
+        <v>5.2645074127496923E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14284,7 +15840,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14390,15 +15946,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FE0DD-76EC-42A6-AEFB-153FB1589351}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>67</v>
       </c>
@@ -14406,25 +15962,49 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1">
+        <f>1-MAE!K38/5</f>
+        <v>0.84602888888888894</v>
+      </c>
+      <c r="C2" s="1">
+        <f>Precision!K38</f>
+        <v>3.1855555555555554E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <f>Recall!K38</f>
+        <v>0.90151111111111115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1">
+        <f>1-MAE!K20/5</f>
+        <v>0.84588444444444444</v>
+      </c>
+      <c r="C3" s="1">
+        <f>Precision!K20</f>
+        <v>3.1911111111111112E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Recall!K20</f>
+        <v>0.90055555555555555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -14432,5 +16012,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>